--- a/Tables/Sources/gameplay/MainTask/Work.xlsx
+++ b/Tables/Sources/gameplay/MainTask/Work.xlsx
@@ -14,12 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="60">
   <si>
     <t>工作ID</t>
   </si>
   <si>
-    <t>讲武堂等级</t>
+    <t>解锁条件，讲武堂等级</t>
   </si>
   <si>
     <t>工作名称</t>
@@ -37,13 +37,16 @@
     <t>工作时长，秒</t>
   </si>
   <si>
-    <t>工作间隔，分钟</t>
+    <t>生成工作间隔，分钟</t>
+  </si>
+  <si>
+    <t>自动采集等待，秒</t>
   </si>
   <si>
     <t>最大保留数量</t>
   </si>
   <si>
-    <t>最大同时工作人数</t>
+    <t>手动最大同时工作人数</t>
   </si>
   <si>
     <t>A</t>
@@ -79,22 +82,31 @@
     <t>WordInterval</t>
   </si>
   <si>
+    <t>WaitingTime</t>
+  </si>
+  <si>
     <t>StoreAmount</t>
   </si>
   <si>
     <t>MeanWhileWorkman</t>
   </si>
   <si>
+    <t>每次登录产出</t>
+  </si>
+  <si>
+    <t>每日极限产出</t>
+  </si>
+  <si>
     <t>砍伐乌木</t>
   </si>
   <si>
     <t>师父让咱砍树，咱就得砍，不可有怨言。</t>
   </si>
   <si>
-    <t>1002|20_30</t>
-  </si>
-  <si>
-    <t>1;1;2;2;2;3;3;3</t>
+    <t>1002|10_15</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
   <si>
     <t>开采青岩</t>
@@ -103,7 +115,7 @@
     <t>这青石又硬又滑，挖起来可比砍树累多了。</t>
   </si>
   <si>
-    <t>1001|20_30</t>
+    <t>1001|10_15</t>
   </si>
   <si>
     <t>开采黑铁</t>
@@ -112,10 +124,7 @@
     <t>挖黑铁这种事，交给我就对了。</t>
   </si>
   <si>
-    <t>1006|5_8</t>
-  </si>
-  <si>
-    <t>1;1;1;1;1;1;1;1</t>
+    <t>1006|3_5</t>
   </si>
   <si>
     <t>捉鸡</t>
@@ -133,10 +142,10 @@
     <t>这树可不好砍，比乌木硬多了。</t>
   </si>
   <si>
-    <t>1004|10_15</t>
-  </si>
-  <si>
-    <t>1007|0_3</t>
+    <t>1004|5_8</t>
+  </si>
+  <si>
+    <t>1007|0_2</t>
   </si>
   <si>
     <t>开采云岩</t>
@@ -145,10 +154,10 @@
     <t>云岩这么漂亮，挖的时候心情也好多了。</t>
   </si>
   <si>
-    <t>1003|10_15</t>
-  </si>
-  <si>
-    <t>1008|0_3</t>
+    <t>1003|5_8</t>
+  </si>
+  <si>
+    <t>1008|0_2</t>
   </si>
   <si>
     <t>钓鱼</t>
@@ -157,7 +166,7 @@
     <t>给我一根鱼竿，我能钓起整个地球。</t>
   </si>
   <si>
-    <t>1012|5_8</t>
+    <t>1012|3_5</t>
   </si>
   <si>
     <t>采集紫藤</t>
@@ -166,7 +175,7 @@
     <t>紫藤上面刺可多了，这可不是个好活儿。</t>
   </si>
   <si>
-    <t>1005|5_8</t>
+    <t>1005|3_5</t>
   </si>
   <si>
     <t>打井水</t>
@@ -193,9 +202,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -214,10 +223,100 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -229,67 +328,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -298,6 +336,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -307,46 +353,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -372,61 +381,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -438,61 +543,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -504,55 +555,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -585,31 +594,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -629,17 +614,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -655,6 +634,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -678,16 +672,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -696,136 +705,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1160,133 +1169,143 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J40"/>
+  <dimension ref="A1:O40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K8" sqref="K8"/>
+      <selection pane="bottomLeft" activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="8.125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.25" style="2" customWidth="1"/>
-    <col min="4" max="4" width="46.25" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="16.75" style="2" customWidth="1"/>
-    <col min="7" max="7" width="10.375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="11.875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="18.5" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="8.83333333333333" style="2"/>
+    <col min="1" max="1" width="7.25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="17.125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10" style="2" customWidth="1"/>
+    <col min="5" max="5" width="42.125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="9.75" style="2" customWidth="1"/>
+    <col min="8" max="8" width="10.375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="15.375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="13.75" style="2" customWidth="1"/>
+    <col min="11" max="11" width="11.875" style="2" customWidth="1"/>
+    <col min="12" max="12" width="18.5" style="2" customWidth="1"/>
+    <col min="13" max="13" width="8.83333333333333" style="2"/>
+    <col min="14" max="15" width="10.375" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="8.83333333333333" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:10">
+    <row r="1" s="1" customFormat="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:10">
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:10">
+        <v>11</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:10">
+      <c r="K3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:15">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -1310,400 +1329,546 @@
       <c r="J4" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="K4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="2">
         <v>101</v>
       </c>
       <c r="B5" s="3">
         <v>1</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="2">
+        <v>27</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="2">
         <v>10</v>
       </c>
-      <c r="H5" s="2">
+      <c r="I5" s="2">
         <v>0</v>
       </c>
-      <c r="I5" s="2">
+      <c r="J5" s="2">
+        <v>30</v>
+      </c>
+      <c r="K5" s="2">
         <v>1</v>
       </c>
-      <c r="J5" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="L5" s="2">
+        <v>3</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O5" s="2">
+        <f>12.5*24*3600/(H5+J5+10)</f>
+        <v>21600</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="2">
         <v>102</v>
       </c>
       <c r="B6" s="3">
         <v>1</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="2">
+        <v>31</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="2">
         <v>10</v>
       </c>
-      <c r="H6" s="2">
+      <c r="I6" s="2">
         <v>0</v>
       </c>
-      <c r="I6" s="2">
+      <c r="J6" s="2">
+        <v>30</v>
+      </c>
+      <c r="K6" s="2">
         <v>1</v>
       </c>
-      <c r="J6" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="L6" s="2">
+        <v>3</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O6" s="2">
+        <f>12.5*24*3600/(H6+J6+10)</f>
+        <v>21600</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="2">
         <v>201</v>
       </c>
       <c r="B7" s="3">
         <v>2</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>30</v>
-      </c>
+      <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="2">
-        <v>60</v>
+        <v>34</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="H7" s="2">
+        <v>180</v>
+      </c>
+      <c r="I7" s="2">
         <v>90</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
+        <v>180</v>
+      </c>
+      <c r="K7" s="2">
         <v>3</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="L7" s="2">
+        <v>1</v>
+      </c>
+      <c r="N7" s="2">
+        <f>4*K7</f>
+        <v>12</v>
+      </c>
+      <c r="O7" s="2">
+        <f t="shared" ref="O7:O11" si="0">4*24*60/I7</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="2">
         <v>301</v>
       </c>
       <c r="B8" s="3">
         <v>3</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>34</v>
-      </c>
+      <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G8" s="2">
-        <v>60</v>
+        <v>37</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="H8" s="2">
+        <v>120</v>
+      </c>
+      <c r="I8" s="2">
+        <v>120</v>
+      </c>
+      <c r="J8" s="2">
         <v>180</v>
       </c>
-      <c r="I8" s="2">
+      <c r="K8" s="2">
         <v>3</v>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="L8" s="2">
+        <v>1</v>
+      </c>
+      <c r="N8" s="2">
+        <f>4*K8</f>
+        <v>12</v>
+      </c>
+      <c r="O8" s="2">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="2">
         <v>302</v>
       </c>
       <c r="B9" s="3">
         <v>3</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>37</v>
-      </c>
+      <c r="C9" s="3"/>
       <c r="D9" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G9" s="2">
-        <v>120</v>
+        <v>42</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="H9" s="2">
+        <v>30</v>
+      </c>
+      <c r="I9" s="2">
         <v>0</v>
       </c>
-      <c r="I9" s="2">
+      <c r="J9" s="2">
+        <v>60</v>
+      </c>
+      <c r="K9" s="2">
         <v>1</v>
       </c>
-      <c r="J9" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="L9" s="2">
+        <v>3</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O9" s="2">
+        <f>6.5*24*3600/(H9+J9+10)</f>
+        <v>5616</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="2">
         <v>303</v>
       </c>
       <c r="B10" s="2">
         <v>3</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="D10" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G10" s="2">
-        <v>120</v>
+        <v>46</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="H10" s="2">
+        <v>30</v>
+      </c>
+      <c r="I10" s="2">
         <v>0</v>
       </c>
-      <c r="I10" s="2">
+      <c r="J10" s="2">
+        <v>60</v>
+      </c>
+      <c r="K10" s="2">
         <v>1</v>
       </c>
-      <c r="J10" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="L10" s="2">
+        <v>3</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O10" s="2">
+        <f>6.5*24*3600/(H10+J10+10)</f>
+        <v>5616</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="2">
         <v>401</v>
       </c>
       <c r="B11" s="3">
         <v>4</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>45</v>
-      </c>
+      <c r="C11" s="3"/>
       <c r="D11" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G11" s="2">
+        <v>48</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H11" s="2">
+        <v>120</v>
+      </c>
+      <c r="I11" s="2">
         <v>180</v>
       </c>
-      <c r="H11" s="2">
+      <c r="J11" s="2">
         <v>180</v>
       </c>
-      <c r="I11" s="2">
+      <c r="K11" s="2">
+        <v>3</v>
+      </c>
+      <c r="L11" s="2">
         <v>1</v>
       </c>
-      <c r="J11" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="N11" s="2">
+        <f>4*K11</f>
+        <v>12</v>
+      </c>
+      <c r="O11" s="2">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="2">
         <v>402</v>
       </c>
       <c r="B12" s="3">
         <v>4</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>49</v>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G12" s="2">
+        <v>52</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H12" s="2">
         <v>180</v>
       </c>
-      <c r="H12" s="2">
+      <c r="I12" s="2">
         <v>90</v>
       </c>
-      <c r="I12" s="2">
+      <c r="J12" s="2">
+        <v>180</v>
+      </c>
+      <c r="K12" s="2">
+        <v>3</v>
+      </c>
+      <c r="L12" s="2">
         <v>1</v>
       </c>
-      <c r="J12" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="N12" s="2">
+        <f>4*K12</f>
+        <v>12</v>
+      </c>
+      <c r="O12" s="2">
+        <f>4*24*60/I12</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="2">
         <v>501</v>
       </c>
       <c r="B13" s="3">
         <v>5</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>52</v>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G13" s="2">
-        <v>240</v>
+        <v>55</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="H13" s="2">
+        <v>300</v>
+      </c>
+      <c r="I13" s="2">
         <v>180</v>
       </c>
-      <c r="I13" s="2">
+      <c r="J13" s="2">
+        <v>180</v>
+      </c>
+      <c r="K13" s="2">
+        <v>3</v>
+      </c>
+      <c r="L13" s="2">
         <v>1</v>
       </c>
-      <c r="J13" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="N13" s="2">
+        <f>4*K13</f>
+        <v>12</v>
+      </c>
+      <c r="O13" s="2">
+        <f>4*24*60/I13</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="2">
         <v>601</v>
       </c>
       <c r="B14" s="3">
         <v>6</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>55</v>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G14" s="2">
-        <v>240</v>
+        <v>58</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="H14" s="2">
+        <v>300</v>
+      </c>
+      <c r="I14" s="2">
         <v>180</v>
       </c>
-      <c r="I14" s="2">
+      <c r="J14" s="2">
+        <v>180</v>
+      </c>
+      <c r="K14" s="2">
+        <v>3</v>
+      </c>
+      <c r="L14" s="2">
         <v>1</v>
       </c>
-      <c r="J14" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4">
+      <c r="N14" s="2">
+        <f>4*K14</f>
+        <v>12</v>
+      </c>
+      <c r="O14" s="2">
+        <f>4*24*60/I14</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
       <c r="B22"/>
       <c r="C22"/>
       <c r="D22"/>
-    </row>
-    <row r="23" spans="2:4">
+      <c r="E22"/>
+    </row>
+    <row r="23" spans="2:5">
       <c r="B23"/>
       <c r="C23"/>
       <c r="D23"/>
-    </row>
-    <row r="24" spans="2:4">
+      <c r="E23"/>
+    </row>
+    <row r="24" spans="2:5">
       <c r="B24"/>
       <c r="C24"/>
       <c r="D24"/>
-    </row>
-    <row r="25" spans="2:4">
+      <c r="E24"/>
+    </row>
+    <row r="25" spans="2:5">
       <c r="B25"/>
       <c r="C25"/>
       <c r="D25"/>
-    </row>
-    <row r="26" spans="2:4">
+      <c r="E25"/>
+    </row>
+    <row r="26" spans="2:5">
       <c r="B26"/>
       <c r="C26"/>
       <c r="D26"/>
-    </row>
-    <row r="27" spans="2:4">
+      <c r="E26"/>
+    </row>
+    <row r="27" spans="2:5">
       <c r="B27"/>
       <c r="C27"/>
       <c r="D27"/>
-    </row>
-    <row r="28" spans="2:4">
+      <c r="E27"/>
+    </row>
+    <row r="28" spans="2:5">
       <c r="B28"/>
       <c r="C28"/>
       <c r="D28"/>
-    </row>
-    <row r="29" spans="2:4">
+      <c r="E28"/>
+    </row>
+    <row r="29" spans="2:5">
       <c r="B29"/>
       <c r="C29"/>
       <c r="D29"/>
-    </row>
-    <row r="30" spans="2:4">
+      <c r="E29"/>
+    </row>
+    <row r="30" spans="2:5">
       <c r="B30"/>
       <c r="C30"/>
       <c r="D30"/>
-    </row>
-    <row r="31" spans="2:4">
+      <c r="E30"/>
+    </row>
+    <row r="31" spans="2:5">
       <c r="B31"/>
       <c r="C31"/>
       <c r="D31"/>
-    </row>
-    <row r="32" spans="2:4">
+      <c r="E31"/>
+    </row>
+    <row r="32" spans="2:5">
       <c r="B32"/>
       <c r="C32"/>
       <c r="D32"/>
-    </row>
-    <row r="33" spans="2:4">
+      <c r="E32"/>
+    </row>
+    <row r="33" spans="2:5">
       <c r="B33"/>
       <c r="C33"/>
       <c r="D33"/>
-    </row>
-    <row r="34" spans="2:4">
+      <c r="E33"/>
+    </row>
+    <row r="34" spans="2:5">
       <c r="B34"/>
       <c r="C34"/>
       <c r="D34"/>
-    </row>
-    <row r="35" spans="2:4">
+      <c r="E34"/>
+    </row>
+    <row r="35" spans="2:5">
       <c r="B35"/>
       <c r="C35"/>
       <c r="D35"/>
-    </row>
-    <row r="36" spans="2:4">
+      <c r="E35"/>
+    </row>
+    <row r="36" spans="2:5">
       <c r="B36"/>
       <c r="C36"/>
       <c r="D36"/>
-    </row>
-    <row r="37" spans="2:4">
+      <c r="E36"/>
+    </row>
+    <row r="37" spans="2:5">
       <c r="B37"/>
       <c r="C37"/>
       <c r="D37"/>
-    </row>
-    <row r="38" spans="2:4">
+      <c r="E37"/>
+    </row>
+    <row r="38" spans="2:5">
       <c r="B38"/>
       <c r="C38"/>
       <c r="D38"/>
-    </row>
-    <row r="39" spans="2:4">
+      <c r="E38"/>
+    </row>
+    <row r="39" spans="2:5">
       <c r="B39"/>
       <c r="C39"/>
       <c r="D39"/>
-    </row>
-    <row r="40" spans="2:4">
+      <c r="E39"/>
+    </row>
+    <row r="40" spans="2:5">
       <c r="B40"/>
       <c r="C40"/>
       <c r="D40"/>
+      <c r="E40"/>
     </row>
   </sheetData>
-  <sortState ref="B5:D14">
+  <sortState ref="B5:E14">
     <sortCondition ref="B5"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Tables/Sources/gameplay/MainTask/Work.xlsx
+++ b/Tables/Sources/gameplay/MainTask/Work.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowHeight="14080"/>
   </bookViews>
   <sheets>
     <sheet name="sheet" sheetId="2" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="72">
   <si>
     <t>工作ID</t>
   </si>
@@ -22,6 +22,9 @@
     <t>解锁条件，讲武堂等级</t>
   </si>
   <si>
+    <t>收集资源的类型</t>
+  </si>
+  <si>
     <t>工作名称</t>
   </si>
   <si>
@@ -64,6 +67,9 @@
     <t>HomeLevel</t>
   </si>
   <si>
+    <t>CollectObjType</t>
+  </si>
+  <si>
     <t>WorkName</t>
   </si>
   <si>
@@ -79,7 +85,7 @@
     <t>WorkTime</t>
   </si>
   <si>
-    <t>WordInterval</t>
+    <t>WorkInterval</t>
   </si>
   <si>
     <t>WaitingTime</t>
@@ -97,25 +103,34 @@
     <t>每日极限产出</t>
   </si>
   <si>
+    <t>WuWood</t>
+  </si>
+  <si>
     <t>砍伐乌木</t>
   </si>
   <si>
     <t>师父让咱砍树，咱就得砍，不可有怨言。</t>
   </si>
   <si>
-    <t>1002|10_15</t>
+    <t>Item|1002|10_15</t>
   </si>
   <si>
     <t>-</t>
   </si>
   <si>
+    <t>QingRock</t>
+  </si>
+  <si>
     <t>开采青岩</t>
   </si>
   <si>
     <t>这青石又硬又滑，挖起来可比砍树累多了。</t>
   </si>
   <si>
-    <t>1001|10_15</t>
+    <t>Item|1001|10_15</t>
+  </si>
+  <si>
+    <t>Iron</t>
   </si>
   <si>
     <t>开采黑铁</t>
@@ -124,7 +139,10 @@
     <t>挖黑铁这种事，交给我就对了。</t>
   </si>
   <si>
-    <t>1006|3_5</t>
+    <t>Item|1006|3_5</t>
+  </si>
+  <si>
+    <t>Chicken</t>
   </si>
   <si>
     <t>捉鸡</t>
@@ -133,7 +151,10 @@
     <t>捉鸡的时候要有耐心，千万不能“捉鸡”。</t>
   </si>
   <si>
-    <t>1014|3_5</t>
+    <t>Item|1014|3_5</t>
+  </si>
+  <si>
+    <t>SilverWood</t>
   </si>
   <si>
     <t>砍伐银木</t>
@@ -142,10 +163,13 @@
     <t>这树可不好砍，比乌木硬多了。</t>
   </si>
   <si>
-    <t>1004|5_8</t>
-  </si>
-  <si>
-    <t>1007|0_2</t>
+    <t>Item|1004|5_8</t>
+  </si>
+  <si>
+    <t>Item|1007|0_2</t>
+  </si>
+  <si>
+    <t>CloudRock</t>
   </si>
   <si>
     <t>开采云岩</t>
@@ -154,10 +178,13 @@
     <t>云岩这么漂亮，挖的时候心情也好多了。</t>
   </si>
   <si>
-    <t>1003|5_8</t>
-  </si>
-  <si>
-    <t>1008|0_2</t>
+    <t>Item|1003|5_8</t>
+  </si>
+  <si>
+    <t>Item|1008|0_2</t>
+  </si>
+  <si>
+    <t>Fish</t>
   </si>
   <si>
     <t>钓鱼</t>
@@ -166,7 +193,10 @@
     <t>给我一根鱼竿，我能钓起整个地球。</t>
   </si>
   <si>
-    <t>1012|3_5</t>
+    <t>Item|1012|3_5</t>
+  </si>
+  <si>
+    <t>Vine</t>
   </si>
   <si>
     <t>采集紫藤</t>
@@ -175,7 +205,10 @@
     <t>紫藤上面刺可多了，这可不是个好活儿。</t>
   </si>
   <si>
-    <t>1005|3_5</t>
+    <t>Item|1005|3_5</t>
+  </si>
+  <si>
+    <t>Well</t>
   </si>
   <si>
     <t>打井水</t>
@@ -184,7 +217,10 @@
     <t>吃水不忘挖井人，就是不知道这井是谁挖的。</t>
   </si>
   <si>
-    <t>1018|3_5</t>
+    <t>Item|1018|3_5</t>
+  </si>
+  <si>
+    <t>Ganoderma</t>
   </si>
   <si>
     <t>采集灵芝</t>
@@ -193,7 +229,7 @@
     <t>采灵芝的秘诀就是，小心小心再小心。</t>
   </si>
   <si>
-    <t>1020|3_5</t>
+    <t>Item|1020|3_5</t>
   </si>
 </sst>
 </file>
@@ -202,9 +238,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -220,6 +256,89 @@
       <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -230,9 +349,46 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -245,126 +401,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -381,187 +417,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -590,15 +626,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -614,26 +641,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -655,10 +673,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -673,17 +689,37 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -693,10 +729,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -705,136 +741,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1174,14 +1210,14 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="L21" sqref="L21"/>
+      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="7.25" style="2" customWidth="1"/>
     <col min="2" max="2" width="17.125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15" style="2" customWidth="1"/>
     <col min="4" max="4" width="10" style="2" customWidth="1"/>
     <col min="5" max="5" width="42.125" style="2" customWidth="1"/>
     <col min="6" max="6" width="10.625" style="2" customWidth="1"/>
@@ -1196,150 +1232,162 @@
     <col min="16" max="16384" width="8.83333333333333" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:12">
+    <row r="1" s="1" customFormat="1" ht="13.5" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="13.5" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="13.5" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="L3" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="13.5" spans="1:15">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -1349,15 +1397,17 @@
       <c r="B5" s="3">
         <v>1</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="D5" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H5" s="2">
         <v>10</v>
@@ -1375,7 +1425,7 @@
         <v>3</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O5" s="2">
         <f>12.5*24*3600/(H5+J5+10)</f>
@@ -1389,15 +1439,17 @@
       <c r="B6" s="3">
         <v>1</v>
       </c>
-      <c r="C6" s="3"/>
+      <c r="C6" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="D6" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H6" s="2">
         <v>10</v>
@@ -1415,7 +1467,7 @@
         <v>3</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O6" s="2">
         <f>12.5*24*3600/(H6+J6+10)</f>
@@ -1429,15 +1481,17 @@
       <c r="B7" s="3">
         <v>2</v>
       </c>
-      <c r="C7" s="3"/>
+      <c r="C7" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="D7" s="3" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H7" s="2">
         <v>180</v>
@@ -1459,7 +1513,7 @@
         <v>12</v>
       </c>
       <c r="O7" s="2">
-        <f t="shared" ref="O7:O11" si="0">4*24*60/I7</f>
+        <f t="shared" ref="O7:O14" si="0">4*24*60/I7</f>
         <v>64</v>
       </c>
     </row>
@@ -1470,15 +1524,17 @@
       <c r="B8" s="3">
         <v>3</v>
       </c>
-      <c r="C8" s="3"/>
+      <c r="C8" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="D8" s="3" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H8" s="2">
         <v>120</v>
@@ -1511,18 +1567,20 @@
       <c r="B9" s="3">
         <v>3</v>
       </c>
-      <c r="C9" s="3"/>
+      <c r="C9" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="D9" s="3" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="H9" s="2">
         <v>30</v>
@@ -1540,7 +1598,7 @@
         <v>3</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O9" s="2">
         <f>6.5*24*3600/(H9+J9+10)</f>
@@ -1554,17 +1612,20 @@
       <c r="B10" s="2">
         <v>3</v>
       </c>
+      <c r="C10" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="D10" s="2" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="H10" s="2">
         <v>30</v>
@@ -1582,7 +1643,7 @@
         <v>3</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O10" s="2">
         <f>6.5*24*3600/(H10+J10+10)</f>
@@ -1596,15 +1657,17 @@
       <c r="B11" s="3">
         <v>4</v>
       </c>
-      <c r="C11" s="3"/>
+      <c r="C11" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="D11" s="3" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="H11" s="2">
         <v>120</v>
@@ -1637,15 +1700,17 @@
       <c r="B12" s="3">
         <v>4</v>
       </c>
-      <c r="C12" s="3"/>
+      <c r="C12" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="D12" s="3" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="H12" s="2">
         <v>180</v>
@@ -1667,7 +1732,7 @@
         <v>12</v>
       </c>
       <c r="O12" s="2">
-        <f>4*24*60/I12</f>
+        <f t="shared" si="0"/>
         <v>64</v>
       </c>
     </row>
@@ -1678,15 +1743,17 @@
       <c r="B13" s="3">
         <v>5</v>
       </c>
-      <c r="C13" s="3"/>
+      <c r="C13" s="3" t="s">
+        <v>64</v>
+      </c>
       <c r="D13" s="3" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="H13" s="2">
         <v>300</v>
@@ -1708,7 +1775,7 @@
         <v>12</v>
       </c>
       <c r="O13" s="2">
-        <f>4*24*60/I13</f>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
     </row>
@@ -1719,15 +1786,17 @@
       <c r="B14" s="3">
         <v>6</v>
       </c>
-      <c r="C14" s="3"/>
+      <c r="C14" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="D14" s="3" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="H14" s="2">
         <v>300</v>
@@ -1749,7 +1818,7 @@
         <v>12</v>
       </c>
       <c r="O14" s="2">
-        <f>4*24*60/I14</f>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
     </row>

--- a/Tables/Sources/gameplay/MainTask/Work.xlsx
+++ b/Tables/Sources/gameplay/MainTask/Work.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="14080"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="sheet" sheetId="2" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="73">
   <si>
     <t>工作ID</t>
   </si>
@@ -101,6 +101,9 @@
   </si>
   <si>
     <t>每日极限产出</t>
+  </si>
+  <si>
+    <t>每小时产出</t>
   </si>
   <si>
     <t>WuWood</t>
@@ -238,9 +241,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -258,8 +261,59 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -273,10 +327,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -290,22 +369,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -320,14 +384,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -341,66 +398,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -417,49 +420,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -471,133 +594,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -626,6 +629,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -642,49 +654,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -710,16 +689,40 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -729,10 +732,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -741,136 +744,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1205,15 +1208,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O40"/>
+  <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
+      <selection pane="bottomLeft" activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="7.25" style="2" customWidth="1"/>
     <col min="2" max="2" width="17.125" style="2" customWidth="1"/>
@@ -1229,10 +1232,11 @@
     <col min="12" max="12" width="18.5" style="2" customWidth="1"/>
     <col min="13" max="13" width="8.83333333333333" style="2"/>
     <col min="14" max="15" width="10.375" style="2" customWidth="1"/>
-    <col min="16" max="16384" width="8.83333333333333" style="2"/>
+    <col min="16" max="16" width="8.875" style="2" customWidth="1"/>
+    <col min="17" max="16384" width="8.83333333333333" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="13.5" spans="1:12">
+    <row r="1" s="1" customFormat="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1270,7 +1274,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="13.5" spans="1:12">
+    <row r="2" s="1" customFormat="1" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -1308,7 +1312,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="13.5" spans="1:12">
+    <row r="3" s="1" customFormat="1" spans="1:12">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -1346,7 +1350,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="13.5" spans="1:15">
+    <row r="4" s="1" customFormat="1" spans="1:16">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -1389,8 +1393,11 @@
       <c r="O4" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" s="2">
         <v>101</v>
       </c>
@@ -1398,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H5" s="2">
         <v>10</v>
@@ -1425,14 +1432,18 @@
         <v>3</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O5" s="2">
         <f>12.5*24*3600/(H5+J5+10)</f>
         <v>21600</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5" s="2">
+        <f t="shared" ref="P5:P10" si="0">12.5*3600/(H5+J5+10)*L5</f>
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" s="2">
         <v>102</v>
       </c>
@@ -1440,16 +1451,16 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H6" s="2">
         <v>10</v>
@@ -1467,12 +1478,16 @@
         <v>3</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O6" s="2">
         <f>12.5*24*3600/(H6+J6+10)</f>
         <v>21600</v>
       </c>
+      <c r="P6" s="2">
+        <f t="shared" si="0"/>
+        <v>2700</v>
+      </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="2">
@@ -1482,16 +1497,16 @@
         <v>2</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H7" s="2">
         <v>180</v>
@@ -1513,7 +1528,7 @@
         <v>12</v>
       </c>
       <c r="O7" s="2">
-        <f t="shared" ref="O7:O14" si="0">4*24*60/I7</f>
+        <f t="shared" ref="O7:O14" si="1">4*24*60/I7</f>
         <v>64</v>
       </c>
     </row>
@@ -1525,16 +1540,16 @@
         <v>3</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" s="2">
         <v>120</v>
@@ -1556,11 +1571,11 @@
         <v>12</v>
       </c>
       <c r="O8" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:16">
       <c r="A9" s="2">
         <v>302</v>
       </c>
@@ -1568,19 +1583,19 @@
         <v>3</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H9" s="2">
         <v>30</v>
@@ -1598,14 +1613,18 @@
         <v>3</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O9" s="2">
         <f>6.5*24*3600/(H9+J9+10)</f>
         <v>5616</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9" s="2">
+        <f t="shared" si="0"/>
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" s="2">
         <v>303</v>
       </c>
@@ -1613,19 +1632,19 @@
         <v>3</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H10" s="2">
         <v>30</v>
@@ -1643,12 +1662,16 @@
         <v>3</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O10" s="2">
         <f>6.5*24*3600/(H10+J10+10)</f>
         <v>5616</v>
       </c>
+      <c r="P10" s="2">
+        <f t="shared" si="0"/>
+        <v>1350</v>
+      </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="2">
@@ -1658,16 +1681,16 @@
         <v>4</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H11" s="2">
         <v>120</v>
@@ -1689,7 +1712,7 @@
         <v>12</v>
       </c>
       <c r="O11" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
     </row>
@@ -1701,16 +1724,16 @@
         <v>4</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H12" s="2">
         <v>180</v>
@@ -1732,7 +1755,7 @@
         <v>12</v>
       </c>
       <c r="O12" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>64</v>
       </c>
     </row>
@@ -1744,16 +1767,16 @@
         <v>5</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H13" s="2">
         <v>300</v>
@@ -1775,7 +1798,7 @@
         <v>12</v>
       </c>
       <c r="O13" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
     </row>
@@ -1787,16 +1810,16 @@
         <v>6</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H14" s="2">
         <v>300</v>
@@ -1818,7 +1841,7 @@
         <v>12</v>
       </c>
       <c r="O14" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
     </row>

--- a/Tables/Sources/gameplay/MainTask/Work.xlsx
+++ b/Tables/Sources/gameplay/MainTask/Work.xlsx
@@ -103,7 +103,7 @@
     <t>每日极限产出</t>
   </si>
   <si>
-    <t>每小时产出</t>
+    <t>每小时自动产出</t>
   </si>
   <si>
     <t>WuWood</t>
@@ -241,8 +241,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -259,6 +259,111 @@
       <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -269,28 +374,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -298,22 +382,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -327,83 +398,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -420,187 +420,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -629,11 +629,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -649,6 +655,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -711,31 +726,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -744,136 +744,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1213,7 +1213,7 @@
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="O16" sqref="O16"/>
+      <selection pane="bottomLeft" activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.25"/>
@@ -1232,7 +1232,7 @@
     <col min="12" max="12" width="18.5" style="2" customWidth="1"/>
     <col min="13" max="13" width="8.83333333333333" style="2"/>
     <col min="14" max="15" width="10.375" style="2" customWidth="1"/>
-    <col min="16" max="16" width="8.875" style="2" customWidth="1"/>
+    <col min="16" max="16" width="12.125" style="2" customWidth="1"/>
     <col min="17" max="16384" width="8.83333333333333" style="2"/>
   </cols>
   <sheetData>
@@ -1439,7 +1439,7 @@
         <v>21600</v>
       </c>
       <c r="P5" s="2">
-        <f t="shared" ref="P5:P10" si="0">12.5*3600/(H5+J5+10)*L5</f>
+        <f>12.5*3600/(H5+J5+10)*L5</f>
         <v>2700</v>
       </c>
     </row>
@@ -1485,7 +1485,7 @@
         <v>21600</v>
       </c>
       <c r="P6" s="2">
-        <f t="shared" si="0"/>
+        <f>12.5*3600/(H6+J6+10)*L6</f>
         <v>2700</v>
       </c>
     </row>
@@ -1515,7 +1515,7 @@
         <v>90</v>
       </c>
       <c r="J7" s="2">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="K7" s="2">
         <v>3</v>
@@ -1528,7 +1528,7 @@
         <v>12</v>
       </c>
       <c r="O7" s="2">
-        <f t="shared" ref="O7:O14" si="1">4*24*60/I7</f>
+        <f>4*24*60/I7</f>
         <v>64</v>
       </c>
     </row>
@@ -1558,7 +1558,7 @@
         <v>120</v>
       </c>
       <c r="J8" s="2">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="K8" s="2">
         <v>3</v>
@@ -1571,7 +1571,7 @@
         <v>12</v>
       </c>
       <c r="O8" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="O7:O14" si="0">4*24*60/I8</f>
         <v>48</v>
       </c>
     </row>
@@ -1604,7 +1604,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="2">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K9" s="2">
         <v>1</v>
@@ -1617,11 +1617,11 @@
       </c>
       <c r="O9" s="2">
         <f>6.5*24*3600/(H9+J9+10)</f>
-        <v>5616</v>
+        <v>6240</v>
       </c>
       <c r="P9" s="2">
-        <f t="shared" si="0"/>
-        <v>1350</v>
+        <f>6.5*3600/(H9+J9+10)*L9</f>
+        <v>780</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -1653,7 +1653,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="2">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K10" s="2">
         <v>1</v>
@@ -1666,11 +1666,11 @@
       </c>
       <c r="O10" s="2">
         <f>6.5*24*3600/(H10+J10+10)</f>
-        <v>5616</v>
+        <v>6240</v>
       </c>
       <c r="P10" s="2">
-        <f t="shared" si="0"/>
-        <v>1350</v>
+        <f>6.5*3600/(H10+J10+10)*L10</f>
+        <v>780</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -1699,7 +1699,7 @@
         <v>180</v>
       </c>
       <c r="J11" s="2">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="K11" s="2">
         <v>3</v>
@@ -1712,7 +1712,7 @@
         <v>12</v>
       </c>
       <c r="O11" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
     </row>
@@ -1742,7 +1742,7 @@
         <v>90</v>
       </c>
       <c r="J12" s="2">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="K12" s="2">
         <v>3</v>
@@ -1755,7 +1755,7 @@
         <v>12</v>
       </c>
       <c r="O12" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>64</v>
       </c>
     </row>
@@ -1779,7 +1779,7 @@
         <v>68</v>
       </c>
       <c r="H13" s="2">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="I13" s="2">
         <v>180</v>
@@ -1798,7 +1798,7 @@
         <v>12</v>
       </c>
       <c r="O13" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
     </row>
@@ -1822,7 +1822,7 @@
         <v>72</v>
       </c>
       <c r="H14" s="2">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="I14" s="2">
         <v>180</v>
@@ -1841,7 +1841,7 @@
         <v>12</v>
       </c>
       <c r="O14" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
     </row>

--- a/Tables/Sources/gameplay/MainTask/Work.xlsx
+++ b/Tables/Sources/gameplay/MainTask/Work.xlsx
@@ -154,7 +154,7 @@
     <t>捉鸡的时候要有耐心，千万不能“捉鸡”。</t>
   </si>
   <si>
-    <t>Item|1014|3_5</t>
+    <t>Item|1014|2_3</t>
   </si>
   <si>
     <t>SilverWood</t>
@@ -196,7 +196,7 @@
     <t>给我一根鱼竿，我能钓起整个地球。</t>
   </si>
   <si>
-    <t>Item|1012|3_5</t>
+    <t>Item|1012|2_3</t>
   </si>
   <si>
     <t>Vine</t>
@@ -220,7 +220,7 @@
     <t>吃水不忘挖井人，就是不知道这井是谁挖的。</t>
   </si>
   <si>
-    <t>Item|1018|3_5</t>
+    <t>Item|1018|2_3</t>
   </si>
   <si>
     <t>Ganoderma</t>
@@ -232,7 +232,7 @@
     <t>采灵芝的秘诀就是，小心小心再小心。</t>
   </si>
   <si>
-    <t>Item|1020|3_5</t>
+    <t>Item|1020|2_3</t>
   </si>
 </sst>
 </file>
@@ -241,9 +241,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -259,6 +259,50 @@
       <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -269,6 +313,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -277,6 +328,59 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -285,58 +389,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -349,61 +404,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -426,73 +426,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -504,37 +576,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -546,61 +594,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -629,6 +629,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -644,6 +662,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -655,39 +682,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -718,11 +712,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -732,10 +732,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -744,136 +744,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1210,10 +1210,10 @@
   <sheetPr/>
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="P12" sqref="P12"/>
+      <selection pane="bottomLeft" activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.25"/>
@@ -1417,7 +1417,7 @@
         <v>33</v>
       </c>
       <c r="H5" s="2">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I5" s="2">
         <v>0</v>
@@ -1436,11 +1436,11 @@
       </c>
       <c r="O5" s="2">
         <f>12.5*24*3600/(H5+J5+10)</f>
-        <v>21600</v>
+        <v>19636.3636363636</v>
       </c>
       <c r="P5" s="2">
         <f>12.5*3600/(H5+J5+10)*L5</f>
-        <v>2700</v>
+        <v>2454.54545454545</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -1463,7 +1463,7 @@
         <v>38</v>
       </c>
       <c r="H6" s="2">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I6" s="2">
         <v>0</v>
@@ -1482,11 +1482,11 @@
       </c>
       <c r="O6" s="2">
         <f>12.5*24*3600/(H6+J6+10)</f>
-        <v>21600</v>
+        <v>19636.3636363636</v>
       </c>
       <c r="P6" s="2">
         <f>12.5*3600/(H6+J6+10)*L6</f>
-        <v>2700</v>
+        <v>2454.54545454545</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -1509,7 +1509,7 @@
         <v>42</v>
       </c>
       <c r="H7" s="2">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="I7" s="2">
         <v>90</v>
@@ -1552,7 +1552,7 @@
         <v>46</v>
       </c>
       <c r="H8" s="2">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="I8" s="2">
         <v>120</v>
@@ -1561,18 +1561,18 @@
         <v>60</v>
       </c>
       <c r="K8" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8" s="2">
         <v>1</v>
       </c>
       <c r="N8" s="2">
-        <f>4*K8</f>
-        <v>12</v>
+        <f>2.5*K8</f>
+        <v>5</v>
       </c>
       <c r="O8" s="2">
-        <f t="shared" ref="O7:O14" si="0">4*24*60/I8</f>
-        <v>48</v>
+        <f>2.5*24*60/I8</f>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -1604,7 +1604,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="2">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="K9" s="2">
         <v>1</v>
@@ -1617,11 +1617,11 @@
       </c>
       <c r="O9" s="2">
         <f>6.5*24*3600/(H9+J9+10)</f>
-        <v>6240</v>
+        <v>6607.05882352941</v>
       </c>
       <c r="P9" s="2">
         <f>6.5*3600/(H9+J9+10)*L9</f>
-        <v>780</v>
+        <v>825.882352941177</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -1653,7 +1653,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="2">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="K10" s="2">
         <v>1</v>
@@ -1666,11 +1666,11 @@
       </c>
       <c r="O10" s="2">
         <f>6.5*24*3600/(H10+J10+10)</f>
-        <v>6240</v>
+        <v>6607.05882352941</v>
       </c>
       <c r="P10" s="2">
         <f>6.5*3600/(H10+J10+10)*L10</f>
-        <v>780</v>
+        <v>825.882352941177</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -1693,27 +1693,27 @@
         <v>60</v>
       </c>
       <c r="H11" s="2">
+        <v>60</v>
+      </c>
+      <c r="I11" s="2">
         <v>120</v>
-      </c>
-      <c r="I11" s="2">
-        <v>180</v>
       </c>
       <c r="J11" s="2">
         <v>60</v>
       </c>
       <c r="K11" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11" s="2">
         <v>1</v>
       </c>
       <c r="N11" s="2">
-        <f>4*K11</f>
-        <v>12</v>
+        <f>2.5*K11</f>
+        <v>5</v>
       </c>
       <c r="O11" s="2">
-        <f t="shared" si="0"/>
-        <v>32</v>
+        <f>2.5*24*60/I11</f>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1736,7 +1736,7 @@
         <v>64</v>
       </c>
       <c r="H12" s="2">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="I12" s="2">
         <v>90</v>
@@ -1755,7 +1755,7 @@
         <v>12</v>
       </c>
       <c r="O12" s="2">
-        <f t="shared" si="0"/>
+        <f>4*24*60/I12</f>
         <v>64</v>
       </c>
     </row>
@@ -1779,27 +1779,27 @@
         <v>68</v>
       </c>
       <c r="H13" s="2">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="I13" s="2">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="J13" s="2">
         <v>180</v>
       </c>
       <c r="K13" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13" s="2">
         <v>1</v>
       </c>
       <c r="N13" s="2">
-        <f>4*K13</f>
-        <v>12</v>
+        <f>2.5*K13</f>
+        <v>5</v>
       </c>
       <c r="O13" s="2">
-        <f t="shared" si="0"/>
-        <v>32</v>
+        <f>2.5*24*60/I13</f>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -1822,27 +1822,27 @@
         <v>72</v>
       </c>
       <c r="H14" s="2">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="I14" s="2">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="J14" s="2">
         <v>180</v>
       </c>
       <c r="K14" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L14" s="2">
         <v>1</v>
       </c>
       <c r="N14" s="2">
-        <f>4*K14</f>
-        <v>12</v>
+        <f>2.5*K14</f>
+        <v>5</v>
       </c>
       <c r="O14" s="2">
-        <f t="shared" si="0"/>
-        <v>32</v>
+        <f>2.5*24*60/I14</f>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="2:5">

--- a/Tables/Sources/gameplay/MainTask/Work.xlsx
+++ b/Tables/Sources/gameplay/MainTask/Work.xlsx
@@ -240,10 +240,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -262,7 +262,82 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -276,22 +351,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -306,15 +390,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -327,83 +404,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -420,19 +420,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -450,145 +588,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -629,11 +629,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -662,41 +668,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -708,6 +679,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -726,16 +715,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -744,136 +744,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1213,7 +1213,7 @@
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K14" sqref="K14"/>
+      <selection pane="bottomLeft" activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.25"/>
@@ -1417,13 +1417,13 @@
         <v>33</v>
       </c>
       <c r="H5" s="2">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I5" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J5" s="2">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K5" s="2">
         <v>1</v>
@@ -1436,11 +1436,11 @@
       </c>
       <c r="O5" s="2">
         <f>12.5*24*3600/(H5+J5+10)</f>
-        <v>19636.3636363636</v>
+        <v>13500</v>
       </c>
       <c r="P5" s="2">
         <f>12.5*3600/(H5+J5+10)*L5</f>
-        <v>2454.54545454545</v>
+        <v>1687.5</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -1463,13 +1463,13 @@
         <v>38</v>
       </c>
       <c r="H6" s="2">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I6" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J6" s="2">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K6" s="2">
         <v>1</v>
@@ -1482,11 +1482,11 @@
       </c>
       <c r="O6" s="2">
         <f>12.5*24*3600/(H6+J6+10)</f>
-        <v>19636.3636363636</v>
+        <v>13500</v>
       </c>
       <c r="P6" s="2">
         <f>12.5*3600/(H6+J6+10)*L6</f>
-        <v>2454.54545454545</v>
+        <v>1687.5</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -1598,13 +1598,13 @@
         <v>51</v>
       </c>
       <c r="H9" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I9" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J9" s="2">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="K9" s="2">
         <v>1</v>
@@ -1617,11 +1617,11 @@
       </c>
       <c r="O9" s="2">
         <f>6.5*24*3600/(H9+J9+10)</f>
-        <v>6607.05882352941</v>
+        <v>6240</v>
       </c>
       <c r="P9" s="2">
         <f>6.5*3600/(H9+J9+10)*L9</f>
-        <v>825.882352941177</v>
+        <v>780</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -1647,13 +1647,13 @@
         <v>56</v>
       </c>
       <c r="H10" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I10" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J10" s="2">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="K10" s="2">
         <v>1</v>
@@ -1666,11 +1666,11 @@
       </c>
       <c r="O10" s="2">
         <f>6.5*24*3600/(H10+J10+10)</f>
-        <v>6607.05882352941</v>
+        <v>6240</v>
       </c>
       <c r="P10" s="2">
         <f>6.5*3600/(H10+J10+10)*L10</f>
-        <v>825.882352941177</v>
+        <v>780</v>
       </c>
     </row>
     <row r="11" spans="1:15">

--- a/Tables/Sources/gameplay/MainTask/Work.xlsx
+++ b/Tables/Sources/gameplay/MainTask/Work.xlsx
@@ -112,7 +112,7 @@
     <t>砍伐乌木</t>
   </si>
   <si>
-    <t>师父让咱砍树，咱就得砍，不可有怨言。</t>
+    <t>我最喜欢砍树了;砍树这种事交给我就对了</t>
   </si>
   <si>
     <t>Item|1002|10_15</t>
@@ -127,7 +127,7 @@
     <t>开采青岩</t>
   </si>
   <si>
-    <t>这青石又硬又滑，挖起来可比砍树累多了。</t>
+    <t>来了来了，马上到;这石头可不好挖，贼硬</t>
   </si>
   <si>
     <t>Item|1001|10_15</t>
@@ -139,7 +139,7 @@
     <t>开采黑铁</t>
   </si>
   <si>
-    <t>挖黑铁这种事，交给我就对了。</t>
+    <t>黑铁比青石好挖一点;干完这活儿我可要睡会儿去</t>
   </si>
   <si>
     <t>Item|1006|3_5</t>
@@ -151,7 +151,7 @@
     <t>捉鸡</t>
   </si>
   <si>
-    <t>捉鸡的时候要有耐心，千万不能“捉鸡”。</t>
+    <t>捉鸡要有耐心，不能“捉鸡”;放开那只鸡，让我来</t>
   </si>
   <si>
     <t>Item|1014|2_3</t>
@@ -163,7 +163,7 @@
     <t>砍伐银木</t>
   </si>
   <si>
-    <t>这树可不好砍，比乌木硬多了。</t>
+    <t>这树可不好砍，比乌木硬多了;怎么又让我砍树</t>
   </si>
   <si>
     <t>Item|1004|5_8</t>
@@ -178,7 +178,7 @@
     <t>开采云岩</t>
   </si>
   <si>
-    <t>云岩这么漂亮，挖的时候心情也好多了。</t>
+    <t>这石头还挺漂亮;我已经挖了九十九块石头了</t>
   </si>
   <si>
     <t>Item|1003|5_8</t>
@@ -193,7 +193,7 @@
     <t>钓鱼</t>
   </si>
   <si>
-    <t>给我一根鱼竿，我能钓起整个地球。</t>
+    <t>给我一根鱼竿，我能钓起整个地球;钓鱼最需要的是耐心</t>
   </si>
   <si>
     <t>Item|1012|2_3</t>
@@ -205,7 +205,7 @@
     <t>采集紫藤</t>
   </si>
   <si>
-    <t>紫藤上面刺可多了，这可不是个好活儿。</t>
+    <t>紫藤上面刺可多了，可得小心点</t>
   </si>
   <si>
     <t>Item|1005|3_5</t>
@@ -217,7 +217,7 @@
     <t>打井水</t>
   </si>
   <si>
-    <t>吃水不忘挖井人，就是不知道这井是谁挖的。</t>
+    <t>吃水不忘挖井人，就是不知道这井是谁挖的</t>
   </si>
   <si>
     <t>Item|1018|2_3</t>
@@ -229,7 +229,7 @@
     <t>采集灵芝</t>
   </si>
   <si>
-    <t>采灵芝的秘诀就是，小心小心再小心。</t>
+    <t>采灵芝的秘诀就是，小心小心再小心</t>
   </si>
   <si>
     <t>Item|1020|2_3</t>
@@ -262,16 +262,92 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -283,61 +359,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -359,6 +383,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -366,44 +404,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -420,13 +420,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -438,85 +570,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -528,79 +594,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -630,25 +630,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -669,25 +660,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -726,16 +708,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -744,136 +744,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1210,10 +1210,10 @@
   <sheetPr/>
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I7" sqref="I7"/>
+      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.25"/>
@@ -1222,7 +1222,7 @@
     <col min="2" max="2" width="17.125" style="2" customWidth="1"/>
     <col min="3" max="3" width="15" style="2" customWidth="1"/>
     <col min="4" max="4" width="10" style="2" customWidth="1"/>
-    <col min="5" max="5" width="42.125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="50.875" style="2" customWidth="1"/>
     <col min="6" max="6" width="10.625" style="2" customWidth="1"/>
     <col min="7" max="7" width="9.75" style="2" customWidth="1"/>
     <col min="8" max="8" width="10.375" style="2" customWidth="1"/>

--- a/Tables/Sources/gameplay/MainTask/Work.xlsx
+++ b/Tables/Sources/gameplay/MainTask/Work.xlsx
@@ -115,7 +115,7 @@
     <t>我最喜欢砍树了;砍树这种事交给我就对了</t>
   </si>
   <si>
-    <t>Item|1002|10_15</t>
+    <t>Item|1002|20_25</t>
   </si>
   <si>
     <t>-</t>
@@ -130,7 +130,7 @@
     <t>来了来了，马上到;这石头可不好挖，贼硬</t>
   </si>
   <si>
-    <t>Item|1001|10_15</t>
+    <t>Item|1001|20_25</t>
   </si>
   <si>
     <t>Iron</t>
@@ -166,7 +166,7 @@
     <t>这树可不好砍，比乌木硬多了;怎么又让我砍树</t>
   </si>
   <si>
-    <t>Item|1004|5_8</t>
+    <t>Item|1004|12_15</t>
   </si>
   <si>
     <t>Item|1007|0_2</t>
@@ -181,7 +181,7 @@
     <t>这石头还挺漂亮;我已经挖了九十九块石头了</t>
   </si>
   <si>
-    <t>Item|1003|5_8</t>
+    <t>Item|1003|12_15</t>
   </si>
   <si>
     <t>Item|1008|0_2</t>
@@ -240,10 +240,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -262,7 +262,90 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -283,8 +366,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -292,52 +391,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -350,60 +404,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -420,13 +420,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -438,37 +576,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -480,121 +588,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -629,32 +629,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -677,34 +673,38 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -721,8 +721,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -732,10 +732,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -744,136 +744,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1210,10 +1210,10 @@
   <sheetPr/>
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
+      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.25"/>

--- a/Tables/Sources/gameplay/MainTask/Work.xlsx
+++ b/Tables/Sources/gameplay/MainTask/Work.xlsx
@@ -40,7 +40,7 @@
     <t>工作时长，秒</t>
   </si>
   <si>
-    <t>生成工作间隔，分钟</t>
+    <t>生成工作间隔，秒</t>
   </si>
   <si>
     <t>自动采集等待，秒</t>
@@ -240,10 +240,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -262,14 +262,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -283,6 +306,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
@@ -305,23 +336,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -335,37 +389,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -375,35 +398,12 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -420,31 +420,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -456,151 +540,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -631,11 +631,59 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -655,30 +703,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -694,21 +718,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -717,25 +726,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -744,136 +744,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1210,26 +1210,26 @@
   <sheetPr/>
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
+      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="7.25" style="2" customWidth="1"/>
-    <col min="2" max="2" width="17.125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15" style="2" customWidth="1"/>
+    <col min="2" max="2" width="6.375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.375" style="2" customWidth="1"/>
     <col min="4" max="4" width="10" style="2" customWidth="1"/>
-    <col min="5" max="5" width="50.875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="9.75" style="2" customWidth="1"/>
+    <col min="5" max="5" width="42.75" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.875" style="2" customWidth="1"/>
     <col min="8" max="8" width="10.375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="15.375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="13.75" style="2" customWidth="1"/>
+    <col min="9" max="9" width="12.5" style="2" customWidth="1"/>
+    <col min="10" max="10" width="11" style="2" customWidth="1"/>
     <col min="11" max="11" width="11.875" style="2" customWidth="1"/>
-    <col min="12" max="12" width="18.5" style="2" customWidth="1"/>
+    <col min="12" max="12" width="11.5" style="2" customWidth="1"/>
     <col min="13" max="13" width="8.83333333333333" style="2"/>
     <col min="14" max="15" width="10.375" style="2" customWidth="1"/>
     <col min="16" max="16" width="12.125" style="2" customWidth="1"/>

--- a/Tables/Sources/gameplay/MainTask/Work.xlsx
+++ b/Tables/Sources/gameplay/MainTask/Work.xlsx
@@ -241,9 +241,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -259,20 +259,6 @@
       <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -283,6 +269,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -291,16 +292,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -314,8 +345,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -330,52 +376,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -390,20 +391,19 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -420,37 +420,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -462,55 +546,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -522,31 +582,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -558,49 +600,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -632,27 +632,7 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -703,6 +683,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -717,25 +726,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -744,7 +744,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -753,7 +753,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -762,118 +762,118 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1213,7 +1213,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
+      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.25"/>
@@ -1226,7 +1226,7 @@
     <col min="6" max="6" width="15.125" style="2" customWidth="1"/>
     <col min="7" max="7" width="12.875" style="2" customWidth="1"/>
     <col min="8" max="8" width="10.375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="12.5" style="2" customWidth="1"/>
+    <col min="9" max="9" width="13.75" style="2" customWidth="1"/>
     <col min="10" max="10" width="11" style="2" customWidth="1"/>
     <col min="11" max="11" width="11.875" style="2" customWidth="1"/>
     <col min="12" max="12" width="11.5" style="2" customWidth="1"/>
@@ -1423,7 +1423,7 @@
         <v>5</v>
       </c>
       <c r="J5" s="2">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="K5" s="2">
         <v>1</v>
@@ -1436,11 +1436,11 @@
       </c>
       <c r="O5" s="2">
         <f>12.5*24*3600/(H5+J5+10)</f>
-        <v>13500</v>
+        <v>9818.18181818182</v>
       </c>
       <c r="P5" s="2">
         <f>12.5*3600/(H5+J5+10)*L5</f>
-        <v>1687.5</v>
+        <v>1227.27272727273</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -1469,7 +1469,7 @@
         <v>5</v>
       </c>
       <c r="J6" s="2">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="K6" s="2">
         <v>1</v>
@@ -1482,11 +1482,11 @@
       </c>
       <c r="O6" s="2">
         <f>12.5*24*3600/(H6+J6+10)</f>
-        <v>13500</v>
+        <v>9818.18181818182</v>
       </c>
       <c r="P6" s="2">
         <f>12.5*3600/(H6+J6+10)*L6</f>
-        <v>1687.5</v>
+        <v>1227.27272727273</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -1512,10 +1512,10 @@
         <v>90</v>
       </c>
       <c r="I7" s="2">
-        <v>90</v>
+        <v>300</v>
       </c>
       <c r="J7" s="2">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="K7" s="2">
         <v>3</v>
@@ -1529,7 +1529,7 @@
       </c>
       <c r="O7" s="2">
         <f>4*24*60/I7</f>
-        <v>64</v>
+        <v>19.2</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -1555,10 +1555,10 @@
         <v>60</v>
       </c>
       <c r="I8" s="2">
-        <v>120</v>
+        <v>480</v>
       </c>
       <c r="J8" s="2">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="K8" s="2">
         <v>2</v>
@@ -1572,7 +1572,7 @@
       </c>
       <c r="O8" s="2">
         <f>2.5*24*60/I8</f>
-        <v>30</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -1604,7 +1604,7 @@
         <v>5</v>
       </c>
       <c r="J9" s="2">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="K9" s="2">
         <v>1</v>
@@ -1617,11 +1617,11 @@
       </c>
       <c r="O9" s="2">
         <f>6.5*24*3600/(H9+J9+10)</f>
-        <v>6240</v>
+        <v>4680</v>
       </c>
       <c r="P9" s="2">
         <f>6.5*3600/(H9+J9+10)*L9</f>
-        <v>780</v>
+        <v>585</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -1653,7 +1653,7 @@
         <v>5</v>
       </c>
       <c r="J10" s="2">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="K10" s="2">
         <v>1</v>
@@ -1666,11 +1666,11 @@
       </c>
       <c r="O10" s="2">
         <f>6.5*24*3600/(H10+J10+10)</f>
-        <v>6240</v>
+        <v>4680</v>
       </c>
       <c r="P10" s="2">
         <f>6.5*3600/(H10+J10+10)*L10</f>
-        <v>780</v>
+        <v>585</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -1696,10 +1696,10 @@
         <v>60</v>
       </c>
       <c r="I11" s="2">
-        <v>120</v>
+        <v>480</v>
       </c>
       <c r="J11" s="2">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="K11" s="2">
         <v>2</v>
@@ -1713,7 +1713,7 @@
       </c>
       <c r="O11" s="2">
         <f>2.5*24*60/I11</f>
-        <v>30</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1739,10 +1739,10 @@
         <v>90</v>
       </c>
       <c r="I12" s="2">
-        <v>90</v>
+        <v>300</v>
       </c>
       <c r="J12" s="2">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="K12" s="2">
         <v>3</v>
@@ -1756,7 +1756,7 @@
       </c>
       <c r="O12" s="2">
         <f>4*24*60/I12</f>
-        <v>64</v>
+        <v>19.2</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -1782,10 +1782,10 @@
         <v>120</v>
       </c>
       <c r="I13" s="2">
-        <v>120</v>
+        <v>480</v>
       </c>
       <c r="J13" s="2">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="K13" s="2">
         <v>2</v>
@@ -1799,7 +1799,7 @@
       </c>
       <c r="O13" s="2">
         <f>2.5*24*60/I13</f>
-        <v>30</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -1825,10 +1825,10 @@
         <v>120</v>
       </c>
       <c r="I14" s="2">
-        <v>120</v>
+        <v>480</v>
       </c>
       <c r="J14" s="2">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="K14" s="2">
         <v>2</v>
@@ -1842,7 +1842,7 @@
       </c>
       <c r="O14" s="2">
         <f>2.5*24*60/I14</f>
-        <v>30</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="22" spans="2:5">

--- a/Tables/Sources/gameplay/MainTask/Work.xlsx
+++ b/Tables/Sources/gameplay/MainTask/Work.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="24225" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="sheet" sheetId="2" r:id="rId1"/>
@@ -240,10 +240,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -259,6 +259,66 @@
       <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -270,7 +330,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -284,46 +344,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -337,44 +368,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -390,20 +391,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -420,31 +420,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -456,151 +594,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -633,7 +633,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -653,17 +653,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -685,20 +679,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -732,10 +732,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -744,136 +744,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1213,7 +1213,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
+      <selection pane="bottomLeft" activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.25"/>

--- a/Tables/Sources/gameplay/MainTask/Work.xlsx
+++ b/Tables/Sources/gameplay/MainTask/Work.xlsx
@@ -142,7 +142,7 @@
     <t>黑铁比青石好挖一点;干完这活儿我可要睡会儿去</t>
   </si>
   <si>
-    <t>Item|1006|3_5</t>
+    <t>Item|1006|1_3</t>
   </si>
   <si>
     <t>Chicken</t>
@@ -154,7 +154,7 @@
     <t>捉鸡要有耐心，不能“捉鸡”;放开那只鸡，让我来</t>
   </si>
   <si>
-    <t>Item|1014|2_3</t>
+    <t>Item|1014|1_2</t>
   </si>
   <si>
     <t>SilverWood</t>
@@ -196,7 +196,7 @@
     <t>给我一根鱼竿，我能钓起整个地球;钓鱼最需要的是耐心</t>
   </si>
   <si>
-    <t>Item|1012|2_3</t>
+    <t>Item|1012|1_2</t>
   </si>
   <si>
     <t>Vine</t>
@@ -208,7 +208,7 @@
     <t>紫藤上面刺可多了，可得小心点</t>
   </si>
   <si>
-    <t>Item|1005|3_5</t>
+    <t>Item|1005|1_3</t>
   </si>
   <si>
     <t>Well</t>
@@ -220,7 +220,7 @@
     <t>吃水不忘挖井人，就是不知道这井是谁挖的</t>
   </si>
   <si>
-    <t>Item|1018|2_3</t>
+    <t>Item|1018|1_2</t>
   </si>
   <si>
     <t>Ganoderma</t>
@@ -232,7 +232,7 @@
     <t>采灵芝的秘诀就是，小心小心再小心</t>
   </si>
   <si>
-    <t>Item|1020|2_3</t>
+    <t>Item|1020|1_2</t>
   </si>
 </sst>
 </file>
@@ -240,10 +240,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -269,9 +269,124 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -284,121 +399,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -420,19 +420,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -444,163 +570,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -629,11 +629,65 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -656,23 +710,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -687,55 +726,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -744,136 +744,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1213,7 +1213,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H16" sqref="H16"/>
+      <selection pane="bottomLeft" activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.25"/>
@@ -1512,10 +1512,10 @@
         <v>90</v>
       </c>
       <c r="I7" s="2">
+        <v>180</v>
+      </c>
+      <c r="J7" s="2">
         <v>300</v>
-      </c>
-      <c r="J7" s="2">
-        <v>150</v>
       </c>
       <c r="K7" s="2">
         <v>3</v>
@@ -1529,7 +1529,7 @@
       </c>
       <c r="O7" s="2">
         <f>4*24*60/I7</f>
-        <v>19.2</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -1555,10 +1555,10 @@
         <v>60</v>
       </c>
       <c r="I8" s="2">
-        <v>480</v>
+        <v>300</v>
       </c>
       <c r="J8" s="2">
-        <v>90</v>
+        <v>300</v>
       </c>
       <c r="K8" s="2">
         <v>2</v>
@@ -1572,7 +1572,7 @@
       </c>
       <c r="O8" s="2">
         <f>2.5*24*60/I8</f>
-        <v>7.5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -1696,10 +1696,10 @@
         <v>60</v>
       </c>
       <c r="I11" s="2">
-        <v>480</v>
+        <v>300</v>
       </c>
       <c r="J11" s="2">
-        <v>90</v>
+        <v>300</v>
       </c>
       <c r="K11" s="2">
         <v>2</v>
@@ -1713,7 +1713,7 @@
       </c>
       <c r="O11" s="2">
         <f>2.5*24*60/I11</f>
-        <v>7.5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1739,10 +1739,10 @@
         <v>90</v>
       </c>
       <c r="I12" s="2">
+        <v>180</v>
+      </c>
+      <c r="J12" s="2">
         <v>300</v>
-      </c>
-      <c r="J12" s="2">
-        <v>150</v>
       </c>
       <c r="K12" s="2">
         <v>3</v>
@@ -1756,7 +1756,7 @@
       </c>
       <c r="O12" s="2">
         <f>4*24*60/I12</f>
-        <v>19.2</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -1782,7 +1782,7 @@
         <v>120</v>
       </c>
       <c r="I13" s="2">
-        <v>480</v>
+        <v>300</v>
       </c>
       <c r="J13" s="2">
         <v>300</v>
@@ -1799,7 +1799,7 @@
       </c>
       <c r="O13" s="2">
         <f>2.5*24*60/I13</f>
-        <v>7.5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -1825,7 +1825,7 @@
         <v>120</v>
       </c>
       <c r="I14" s="2">
-        <v>480</v>
+        <v>300</v>
       </c>
       <c r="J14" s="2">
         <v>300</v>
@@ -1842,7 +1842,7 @@
       </c>
       <c r="O14" s="2">
         <f>2.5*24*60/I14</f>
-        <v>7.5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="2:5">

--- a/Tables/Sources/gameplay/MainTask/Work.xlsx
+++ b/Tables/Sources/gameplay/MainTask/Work.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="sheet" sheetId="2" r:id="rId1"/>
@@ -240,8 +240,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -261,6 +261,51 @@
       <charset val="134"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
@@ -269,7 +314,61 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -283,44 +382,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -330,45 +391,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -381,29 +404,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -420,67 +420,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -492,31 +588,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -529,78 +601,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -629,41 +629,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -692,17 +677,32 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -732,10 +732,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -744,136 +744,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1213,7 +1213,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J9" sqref="J9"/>
+      <selection pane="bottomLeft" activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.25"/>
@@ -1509,7 +1509,7 @@
         <v>42</v>
       </c>
       <c r="H7" s="2">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="I7" s="2">
         <v>180</v>
@@ -1552,7 +1552,7 @@
         <v>46</v>
       </c>
       <c r="H8" s="2">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I8" s="2">
         <v>300</v>
@@ -1693,7 +1693,7 @@
         <v>60</v>
       </c>
       <c r="H11" s="2">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I11" s="2">
         <v>300</v>
@@ -1736,7 +1736,7 @@
         <v>64</v>
       </c>
       <c r="H12" s="2">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="I12" s="2">
         <v>180</v>
@@ -1779,7 +1779,7 @@
         <v>68</v>
       </c>
       <c r="H13" s="2">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="I13" s="2">
         <v>300</v>
@@ -1822,7 +1822,7 @@
         <v>72</v>
       </c>
       <c r="H14" s="2">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="I14" s="2">
         <v>300</v>

--- a/Tables/Sources/gameplay/MainTask/Work.xlsx
+++ b/Tables/Sources/gameplay/MainTask/Work.xlsx
@@ -241,9 +241,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -259,6 +259,134 @@
       <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <i/>
@@ -269,134 +397,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -420,25 +420,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -450,25 +558,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -480,127 +600,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -632,8 +632,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -653,30 +668,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -688,6 +679,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -710,8 +710,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -732,10 +732,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -744,16 +744,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -762,118 +762,118 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1213,7 +1213,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I16" sqref="I16"/>
+      <selection pane="bottomLeft" activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.25"/>
@@ -1423,7 +1423,7 @@
         <v>5</v>
       </c>
       <c r="J5" s="2">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="K5" s="2">
         <v>1</v>
@@ -1436,11 +1436,11 @@
       </c>
       <c r="O5" s="2">
         <f>12.5*24*3600/(H5+J5+10)</f>
-        <v>9818.18181818182</v>
+        <v>7714.28571428571</v>
       </c>
       <c r="P5" s="2">
         <f>12.5*3600/(H5+J5+10)*L5</f>
-        <v>1227.27272727273</v>
+        <v>964.285714285714</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -1469,7 +1469,7 @@
         <v>5</v>
       </c>
       <c r="J6" s="2">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="K6" s="2">
         <v>1</v>
@@ -1482,11 +1482,11 @@
       </c>
       <c r="O6" s="2">
         <f>12.5*24*3600/(H6+J6+10)</f>
-        <v>9818.18181818182</v>
+        <v>7714.28571428571</v>
       </c>
       <c r="P6" s="2">
         <f>12.5*3600/(H6+J6+10)*L6</f>
-        <v>1227.27272727273</v>
+        <v>964.285714285714</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -1604,7 +1604,7 @@
         <v>5</v>
       </c>
       <c r="J9" s="2">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="K9" s="2">
         <v>1</v>
@@ -1617,11 +1617,11 @@
       </c>
       <c r="O9" s="2">
         <f>6.5*24*3600/(H9+J9+10)</f>
-        <v>4680</v>
+        <v>3744</v>
       </c>
       <c r="P9" s="2">
         <f>6.5*3600/(H9+J9+10)*L9</f>
-        <v>585</v>
+        <v>468</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -1653,7 +1653,7 @@
         <v>5</v>
       </c>
       <c r="J10" s="2">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="K10" s="2">
         <v>1</v>
@@ -1666,11 +1666,11 @@
       </c>
       <c r="O10" s="2">
         <f>6.5*24*3600/(H10+J10+10)</f>
-        <v>4680</v>
+        <v>3744</v>
       </c>
       <c r="P10" s="2">
         <f>6.5*3600/(H10+J10+10)*L10</f>
-        <v>585</v>
+        <v>468</v>
       </c>
     </row>
     <row r="11" spans="1:15">

--- a/Tables/Sources/gameplay/MainTask/Work.xlsx
+++ b/Tables/Sources/gameplay/MainTask/Work.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ian.yin\Documents\simswordsman\Tables\Sources\gameplay\MainTask\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC341C7F-CF9B-4EC1-BDA4-59CA933C4504}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="181029" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="98">
   <si>
     <t>工作ID</t>
   </si>
@@ -233,19 +239,111 @@
   </si>
   <si>
     <t>Item|1020|1_2</t>
+  </si>
+  <si>
+    <t>解锁文本</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能文本</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnlockDesc</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FunctionDesc</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>乌木，讲武堂1级解锁</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>青岩，讲武堂1级解锁</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑铁，讲武堂2级解锁</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸡，讲武堂3级解锁</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>银木，讲武堂3级解锁</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>云岩，讲武堂3级解锁</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼，讲武堂4级解锁</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫藤，讲武堂4级解锁</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>古井水，讲武堂5级解锁</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵芝，讲武堂6级解锁</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>乌木，用于建造、升级建筑</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>青岩，用于建造、升级建筑</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑铁，用于制造武器</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸡，用于制作叫花鸡</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>银木，用于建造、升级建筑</t>
+  </si>
+  <si>
+    <t>云岩，用于建造、升级建筑</t>
+  </si>
+  <si>
+    <t>鱼，用于制作掌上明珠</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫藤，用于制造护甲</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>古井水，用于制作莲花清神露</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵芝，用于制作还魂丹</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -258,154 +356,34 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="9"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -414,198 +392,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.349986266670736"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -628,256 +420,14 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -888,63 +438,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="常规 2 2" xfId="44"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="46" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="48" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="49" builtinId="52"/>
+    <cellStyle name="常规 2 2" xfId="1" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1202,41 +714,42 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:P40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="J11" sqref="J11"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.25" style="2" customWidth="1"/>
-    <col min="2" max="2" width="6.375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10" style="2" customWidth="1"/>
-    <col min="5" max="5" width="42.75" style="2" customWidth="1"/>
-    <col min="6" max="6" width="15.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="12.875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="10.375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="13.75" style="2" customWidth="1"/>
-    <col min="10" max="10" width="11" style="2" customWidth="1"/>
-    <col min="11" max="11" width="11.875" style="2" customWidth="1"/>
-    <col min="12" max="12" width="11.5" style="2" customWidth="1"/>
-    <col min="13" max="13" width="8.83333333333333" style="2"/>
-    <col min="14" max="15" width="10.375" style="2" customWidth="1"/>
-    <col min="16" max="16" width="12.125" style="2" customWidth="1"/>
-    <col min="17" max="16384" width="8.83333333333333" style="2"/>
+    <col min="1" max="1" width="7.21875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" style="2" customWidth="1"/>
+    <col min="7" max="7" width="42.77734375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="15.109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="12.88671875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="13.77734375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="11" style="2" customWidth="1"/>
+    <col min="13" max="13" width="11.88671875" style="2" customWidth="1"/>
+    <col min="14" max="14" width="11.44140625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="8.77734375" style="2"/>
+    <col min="16" max="17" width="10.33203125" style="2" customWidth="1"/>
+    <col min="18" max="18" width="12.109375" style="2" customWidth="1"/>
+    <col min="19" max="16384" width="8.77734375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:12">
+    <row r="1" spans="1:18" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1247,34 +760,40 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:12">
+    <row r="2" spans="1:18" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -1288,7 +807,7 @@
         <v>12</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>12</v>
@@ -1311,8 +830,14 @@
       <c r="L2" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:12">
+      <c r="M2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -1335,10 +860,10 @@
         <v>14</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>13</v>
@@ -1349,8 +874,14 @@
       <c r="L3" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:16">
+      <c r="M3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -1361,43 +892,49 @@
         <v>17</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="P4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="Q4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="R4" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>101</v>
       </c>
@@ -1407,43 +944,49 @@
       <c r="C5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H5" s="2">
+      <c r="J5" s="2">
         <v>10</v>
       </c>
-      <c r="I5" s="2">
+      <c r="K5" s="2">
         <v>5</v>
       </c>
-      <c r="J5" s="2">
+      <c r="L5" s="2">
         <v>120</v>
       </c>
-      <c r="K5" s="2">
+      <c r="M5" s="2">
         <v>1</v>
       </c>
-      <c r="L5" s="2">
+      <c r="N5" s="2">
         <v>3</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="P5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="O5" s="2">
-        <f>12.5*24*3600/(H5+J5+10)</f>
-        <v>7714.28571428571</v>
-      </c>
-      <c r="P5" s="2">
-        <f>12.5*3600/(H5+J5+10)*L5</f>
-        <v>964.285714285714</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
+      <c r="Q5" s="2">
+        <f>12.5*24*3600/(J5+L5+10)</f>
+        <v>7714.2857142857147</v>
+      </c>
+      <c r="R5" s="2">
+        <f>12.5*3600/(J5+L5+10)*N5</f>
+        <v>964.28571428571433</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>102</v>
       </c>
@@ -1454,42 +997,48 @@
         <v>35</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="H6" s="2">
+      <c r="J6" s="2">
         <v>10</v>
       </c>
-      <c r="I6" s="2">
+      <c r="K6" s="2">
         <v>5</v>
       </c>
-      <c r="J6" s="2">
+      <c r="L6" s="2">
         <v>120</v>
       </c>
-      <c r="K6" s="2">
+      <c r="M6" s="2">
         <v>1</v>
       </c>
-      <c r="L6" s="2">
+      <c r="N6" s="2">
         <v>3</v>
       </c>
-      <c r="N6" s="2" t="s">
+      <c r="P6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="O6" s="2">
-        <f>12.5*24*3600/(H6+J6+10)</f>
-        <v>7714.28571428571</v>
-      </c>
-      <c r="P6" s="2">
-        <f>12.5*3600/(H6+J6+10)*L6</f>
-        <v>964.285714285714</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="Q6" s="2">
+        <f>12.5*24*3600/(J6+L6+10)</f>
+        <v>7714.2857142857147</v>
+      </c>
+      <c r="R6" s="2">
+        <f>12.5*3600/(J6+L6+10)*N6</f>
+        <v>964.28571428571433</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>201</v>
       </c>
@@ -1499,40 +1048,46 @@
       <c r="C7" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="G7" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>60</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>180</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>300</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>3</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>1</v>
       </c>
-      <c r="N7" s="2">
-        <f>4*K7</f>
-        <v>12</v>
-      </c>
-      <c r="O7" s="2">
-        <f>4*24*60/I7</f>
+      <c r="P7" s="2">
+        <f>4*M7</f>
+        <v>12</v>
+      </c>
+      <c r="Q7" s="2">
+        <f>4*24*60/K7</f>
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>301</v>
       </c>
@@ -1542,40 +1097,46 @@
       <c r="C8" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="G8" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H8" s="2">
+      <c r="J8" s="2">
         <v>30</v>
       </c>
-      <c r="I8" s="2">
+      <c r="K8" s="2">
         <v>300</v>
       </c>
-      <c r="J8" s="2">
+      <c r="L8" s="2">
         <v>300</v>
       </c>
-      <c r="K8" s="2">
+      <c r="M8" s="2">
         <v>2</v>
       </c>
-      <c r="L8" s="2">
+      <c r="N8" s="2">
         <v>1</v>
       </c>
-      <c r="N8" s="2">
-        <f>2.5*K8</f>
+      <c r="P8" s="2">
+        <f>2.5*M8</f>
         <v>5</v>
       </c>
-      <c r="O8" s="2">
-        <f>2.5*24*60/I8</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
+      <c r="Q8" s="2">
+        <f>2.5*24*60/K8</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>302</v>
       </c>
@@ -1585,46 +1146,52 @@
       <c r="C9" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="G9" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="H9" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="I9" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="H9" s="2">
+      <c r="J9" s="2">
         <v>20</v>
       </c>
-      <c r="I9" s="2">
+      <c r="K9" s="2">
         <v>5</v>
       </c>
-      <c r="J9" s="2">
+      <c r="L9" s="2">
         <v>120</v>
       </c>
-      <c r="K9" s="2">
+      <c r="M9" s="2">
         <v>1</v>
       </c>
-      <c r="L9" s="2">
+      <c r="N9" s="2">
         <v>3</v>
       </c>
-      <c r="N9" s="2" t="s">
+      <c r="P9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="O9" s="2">
-        <f>6.5*24*3600/(H9+J9+10)</f>
+      <c r="Q9" s="2">
+        <f>6.5*24*3600/(J9+L9+10)</f>
         <v>3744</v>
       </c>
-      <c r="P9" s="2">
-        <f>6.5*3600/(H9+J9+10)*L9</f>
+      <c r="R9" s="2">
+        <f>6.5*3600/(J9+L9+10)*N9</f>
         <v>468</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>303</v>
       </c>
@@ -1634,46 +1201,52 @@
       <c r="C10" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="G10" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="H10" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="I10" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H10" s="2">
+      <c r="J10" s="2">
         <v>20</v>
       </c>
-      <c r="I10" s="2">
+      <c r="K10" s="2">
         <v>5</v>
       </c>
-      <c r="J10" s="2">
+      <c r="L10" s="2">
         <v>120</v>
       </c>
-      <c r="K10" s="2">
+      <c r="M10" s="2">
         <v>1</v>
       </c>
-      <c r="L10" s="2">
+      <c r="N10" s="2">
         <v>3</v>
       </c>
-      <c r="N10" s="2" t="s">
+      <c r="P10" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="O10" s="2">
-        <f>6.5*24*3600/(H10+J10+10)</f>
+      <c r="Q10" s="2">
+        <f>6.5*24*3600/(J10+L10+10)</f>
         <v>3744</v>
       </c>
-      <c r="P10" s="2">
-        <f>6.5*3600/(H10+J10+10)*L10</f>
+      <c r="R10" s="2">
+        <f>6.5*3600/(J10+L10+10)*N10</f>
         <v>468</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>401</v>
       </c>
@@ -1683,40 +1256,46 @@
       <c r="C11" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="G11" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H11" s="2">
+      <c r="J11" s="2">
         <v>30</v>
       </c>
-      <c r="I11" s="2">
+      <c r="K11" s="2">
         <v>300</v>
       </c>
-      <c r="J11" s="2">
+      <c r="L11" s="2">
         <v>300</v>
       </c>
-      <c r="K11" s="2">
+      <c r="M11" s="2">
         <v>2</v>
       </c>
-      <c r="L11" s="2">
+      <c r="N11" s="2">
         <v>1</v>
       </c>
-      <c r="N11" s="2">
-        <f>2.5*K11</f>
+      <c r="P11" s="2">
+        <f>2.5*M11</f>
         <v>5</v>
       </c>
-      <c r="O11" s="2">
-        <f>2.5*24*60/I11</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="Q11" s="2">
+        <f>2.5*24*60/K11</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>402</v>
       </c>
@@ -1726,40 +1305,46 @@
       <c r="C12" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="G12" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="H12" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="H12" s="2">
+      <c r="J12" s="2">
         <v>60</v>
       </c>
-      <c r="I12" s="2">
+      <c r="K12" s="2">
         <v>180</v>
       </c>
-      <c r="J12" s="2">
+      <c r="L12" s="2">
         <v>300</v>
       </c>
-      <c r="K12" s="2">
+      <c r="M12" s="2">
         <v>3</v>
       </c>
-      <c r="L12" s="2">
+      <c r="N12" s="2">
         <v>1</v>
       </c>
-      <c r="N12" s="2">
-        <f>4*K12</f>
-        <v>12</v>
-      </c>
-      <c r="O12" s="2">
-        <f>4*24*60/I12</f>
+      <c r="P12" s="2">
+        <f>4*M12</f>
+        <v>12</v>
+      </c>
+      <c r="Q12" s="2">
+        <f>4*24*60/K12</f>
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>501</v>
       </c>
@@ -1769,40 +1354,46 @@
       <c r="C13" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="G13" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="H13" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H13" s="2">
+      <c r="J13" s="2">
         <v>90</v>
       </c>
-      <c r="I13" s="2">
+      <c r="K13" s="2">
         <v>300</v>
       </c>
-      <c r="J13" s="2">
+      <c r="L13" s="2">
         <v>300</v>
       </c>
-      <c r="K13" s="2">
+      <c r="M13" s="2">
         <v>2</v>
       </c>
-      <c r="L13" s="2">
+      <c r="N13" s="2">
         <v>1</v>
       </c>
-      <c r="N13" s="2">
-        <f>2.5*K13</f>
+      <c r="P13" s="2">
+        <f>2.5*M13</f>
         <v>5</v>
       </c>
-      <c r="O13" s="2">
-        <f>2.5*24*60/I13</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="Q13" s="2">
+        <f>2.5*24*60/K13</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>601</v>
       </c>
@@ -1812,159 +1403,169 @@
       <c r="C14" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="G14" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="H14" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="H14" s="2">
+      <c r="J14" s="2">
         <v>90</v>
       </c>
-      <c r="I14" s="2">
+      <c r="K14" s="2">
         <v>300</v>
       </c>
-      <c r="J14" s="2">
+      <c r="L14" s="2">
         <v>300</v>
       </c>
-      <c r="K14" s="2">
+      <c r="M14" s="2">
         <v>2</v>
       </c>
-      <c r="L14" s="2">
+      <c r="N14" s="2">
         <v>1</v>
       </c>
-      <c r="N14" s="2">
-        <f>2.5*K14</f>
+      <c r="P14" s="2">
+        <f>2.5*M14</f>
         <v>5</v>
       </c>
-      <c r="O14" s="2">
-        <f>2.5*24*60/I14</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5">
+      <c r="Q14" s="2">
+        <f>2.5*24*60/K14</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22"/>
       <c r="C22"/>
-      <c r="D22"/>
-      <c r="E22"/>
-    </row>
-    <row r="23" spans="2:5">
+      <c r="F22"/>
+      <c r="G22"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23"/>
       <c r="C23"/>
-      <c r="D23"/>
-      <c r="E23"/>
-    </row>
-    <row r="24" spans="2:5">
+      <c r="F23"/>
+      <c r="G23"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24"/>
       <c r="C24"/>
-      <c r="D24"/>
-      <c r="E24"/>
-    </row>
-    <row r="25" spans="2:5">
+      <c r="F24"/>
+      <c r="G24"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25"/>
       <c r="C25"/>
-      <c r="D25"/>
-      <c r="E25"/>
-    </row>
-    <row r="26" spans="2:5">
+      <c r="F25"/>
+      <c r="G25"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26"/>
       <c r="C26"/>
-      <c r="D26"/>
-      <c r="E26"/>
-    </row>
-    <row r="27" spans="2:5">
+      <c r="F26"/>
+      <c r="G26"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27"/>
       <c r="C27"/>
-      <c r="D27"/>
-      <c r="E27"/>
-    </row>
-    <row r="28" spans="2:5">
+      <c r="F27"/>
+      <c r="G27"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28"/>
       <c r="C28"/>
-      <c r="D28"/>
-      <c r="E28"/>
-    </row>
-    <row r="29" spans="2:5">
+      <c r="F28"/>
+      <c r="G28"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29"/>
       <c r="C29"/>
-      <c r="D29"/>
-      <c r="E29"/>
-    </row>
-    <row r="30" spans="2:5">
+      <c r="F29"/>
+      <c r="G29"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30"/>
       <c r="C30"/>
-      <c r="D30"/>
-      <c r="E30"/>
-    </row>
-    <row r="31" spans="2:5">
+      <c r="F30"/>
+      <c r="G30"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31"/>
       <c r="C31"/>
-      <c r="D31"/>
-      <c r="E31"/>
-    </row>
-    <row r="32" spans="2:5">
+      <c r="F31"/>
+      <c r="G31"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32"/>
       <c r="C32"/>
-      <c r="D32"/>
-      <c r="E32"/>
-    </row>
-    <row r="33" spans="2:5">
+      <c r="F32"/>
+      <c r="G32"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33"/>
       <c r="C33"/>
-      <c r="D33"/>
-      <c r="E33"/>
-    </row>
-    <row r="34" spans="2:5">
+      <c r="F33"/>
+      <c r="G33"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34"/>
       <c r="C34"/>
-      <c r="D34"/>
-      <c r="E34"/>
-    </row>
-    <row r="35" spans="2:5">
+      <c r="F34"/>
+      <c r="G34"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35"/>
       <c r="C35"/>
-      <c r="D35"/>
-      <c r="E35"/>
-    </row>
-    <row r="36" spans="2:5">
+      <c r="F35"/>
+      <c r="G35"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36"/>
       <c r="C36"/>
-      <c r="D36"/>
-      <c r="E36"/>
-    </row>
-    <row r="37" spans="2:5">
+      <c r="F36"/>
+      <c r="G36"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37"/>
       <c r="C37"/>
-      <c r="D37"/>
-      <c r="E37"/>
-    </row>
-    <row r="38" spans="2:5">
+      <c r="F37"/>
+      <c r="G37"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B38"/>
       <c r="C38"/>
-      <c r="D38"/>
-      <c r="E38"/>
-    </row>
-    <row r="39" spans="2:5">
+      <c r="F38"/>
+      <c r="G38"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39"/>
       <c r="C39"/>
-      <c r="D39"/>
-      <c r="E39"/>
-    </row>
-    <row r="40" spans="2:5">
+      <c r="F39"/>
+      <c r="G39"/>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B40"/>
       <c r="C40"/>
-      <c r="D40"/>
-      <c r="E40"/>
+      <c r="F40"/>
+      <c r="G40"/>
     </row>
   </sheetData>
-  <sortState ref="B5:E14">
-    <sortCondition ref="B5"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D5:G14">
+    <sortCondition ref="D5"/>
   </sortState>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Tables/Sources/gameplay/MainTask/Work.xlsx
+++ b/Tables/Sources/gameplay/MainTask/Work.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ian.yin\Documents\simswordsman\Tables\Sources\gameplay\MainTask\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC341C7F-CF9B-4EC1-BDA4-59CA933C4504}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="sheet" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="97">
   <si>
     <t>工作ID</t>
   </si>
@@ -31,6 +25,12 @@
     <t>收集资源的类型</t>
   </si>
   <si>
+    <t>解锁文本</t>
+  </si>
+  <si>
+    <t>功能文本</t>
+  </si>
+  <si>
     <t>工作名称</t>
   </si>
   <si>
@@ -76,6 +76,12 @@
     <t>CollectObjType</t>
   </si>
   <si>
+    <t>UnlockDesc</t>
+  </si>
+  <si>
+    <t>FunctionDesc</t>
+  </si>
+  <si>
     <t>WorkName</t>
   </si>
   <si>
@@ -115,6 +121,12 @@
     <t>WuWood</t>
   </si>
   <si>
+    <t>乌木，讲武堂1级解锁</t>
+  </si>
+  <si>
+    <t>乌木，用于建造、升级建筑</t>
+  </si>
+  <si>
     <t>砍伐乌木</t>
   </si>
   <si>
@@ -130,6 +142,12 @@
     <t>QingRock</t>
   </si>
   <si>
+    <t>青岩，讲武堂1级解锁</t>
+  </si>
+  <si>
+    <t>青岩，用于建造、升级建筑</t>
+  </si>
+  <si>
     <t>开采青岩</t>
   </si>
   <si>
@@ -142,6 +160,12 @@
     <t>Iron</t>
   </si>
   <si>
+    <t>黑铁，讲武堂2级解锁</t>
+  </si>
+  <si>
+    <t>黑铁，用于制造武器</t>
+  </si>
+  <si>
     <t>开采黑铁</t>
   </si>
   <si>
@@ -154,6 +178,12 @@
     <t>Chicken</t>
   </si>
   <si>
+    <t>鸡，讲武堂3级解锁</t>
+  </si>
+  <si>
+    <t>鸡，用于制作叫花鸡</t>
+  </si>
+  <si>
     <t>捉鸡</t>
   </si>
   <si>
@@ -166,13 +196,19 @@
     <t>SilverWood</t>
   </si>
   <si>
+    <t>银木，讲武堂3级解锁</t>
+  </si>
+  <si>
+    <t>银木，用于建造、升级建筑</t>
+  </si>
+  <si>
     <t>砍伐银木</t>
   </si>
   <si>
     <t>这树可不好砍，比乌木硬多了;怎么又让我砍树</t>
   </si>
   <si>
-    <t>Item|1004|12_15</t>
+    <t>Item|1004|15_20</t>
   </si>
   <si>
     <t>Item|1007|0_2</t>
@@ -181,13 +217,19 @@
     <t>CloudRock</t>
   </si>
   <si>
+    <t>云岩，讲武堂3级解锁</t>
+  </si>
+  <si>
+    <t>云岩，用于建造、升级建筑</t>
+  </si>
+  <si>
     <t>开采云岩</t>
   </si>
   <si>
     <t>这石头还挺漂亮;我已经挖了九十九块石头了</t>
   </si>
   <si>
-    <t>Item|1003|12_15</t>
+    <t>Item|1003|15_20</t>
   </si>
   <si>
     <t>Item|1008|0_2</t>
@@ -196,6 +238,12 @@
     <t>Fish</t>
   </si>
   <si>
+    <t>鱼，讲武堂4级解锁</t>
+  </si>
+  <si>
+    <t>鱼，用于制作掌上明珠</t>
+  </si>
+  <si>
     <t>钓鱼</t>
   </si>
   <si>
@@ -208,6 +256,12 @@
     <t>Vine</t>
   </si>
   <si>
+    <t>紫藤，讲武堂4级解锁</t>
+  </si>
+  <si>
+    <t>紫藤，用于制造护甲</t>
+  </si>
+  <si>
     <t>采集紫藤</t>
   </si>
   <si>
@@ -220,6 +274,12 @@
     <t>Well</t>
   </si>
   <si>
+    <t>古井水，讲武堂5级解锁</t>
+  </si>
+  <si>
+    <t>古井水，用于制作莲花清神露</t>
+  </si>
+  <si>
     <t>打井水</t>
   </si>
   <si>
@@ -232,6 +292,12 @@
     <t>Ganoderma</t>
   </si>
   <si>
+    <t>灵芝，讲武堂6级解锁</t>
+  </si>
+  <si>
+    <t>灵芝，用于制作还魂丹</t>
+  </si>
+  <si>
     <t>采集灵芝</t>
   </si>
   <si>
@@ -239,111 +305,19 @@
   </si>
   <si>
     <t>Item|1020|1_2</t>
-  </si>
-  <si>
-    <t>解锁文本</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能文本</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>UnlockDesc</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>FunctionDesc</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>乌木，讲武堂1级解锁</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>青岩，讲武堂1级解锁</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑铁，讲武堂2级解锁</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>鸡，讲武堂3级解锁</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>银木，讲武堂3级解锁</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>云岩，讲武堂3级解锁</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼，讲武堂4级解锁</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>紫藤，讲武堂4级解锁</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>古井水，讲武堂5级解锁</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>灵芝，讲武堂6级解锁</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>乌木，用于建造、升级建筑</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>青岩，用于建造、升级建筑</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑铁，用于制造武器</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>鸡，用于制作叫花鸡</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>银木，用于建造、升级建筑</t>
-  </si>
-  <si>
-    <t>云岩，用于建造、升级建筑</t>
-  </si>
-  <si>
-    <t>鱼，用于制作掌上明珠</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>紫藤，用于制造护甲</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>古井水，用于制作莲花清神露</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>灵芝，用于制作还魂丹</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -356,34 +330,161 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -392,12 +493,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <fgColor theme="0" tint="-0.349986266670736"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -420,10 +707,252 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -445,18 +974,62 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2 2" xfId="1" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="常规 2 2" xfId="44"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="46" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="48" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="49" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -714,42 +1287,43 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:R40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.775" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="7.21875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="6.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="23.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.21666666666667" style="2" customWidth="1"/>
+    <col min="2" max="2" width="6.33333333333333" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.3333333333333" style="2" customWidth="1"/>
+    <col min="4" max="4" width="23.775" customWidth="1"/>
+    <col min="5" max="5" width="27.1083333333333" customWidth="1"/>
     <col min="6" max="6" width="10" style="2" customWidth="1"/>
-    <col min="7" max="7" width="42.77734375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="15.109375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="12.88671875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="10.33203125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="13.77734375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="42.775" style="2" customWidth="1"/>
+    <col min="8" max="8" width="15.1083333333333" style="2" customWidth="1"/>
+    <col min="9" max="9" width="12.8833333333333" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.3333333333333" style="2" customWidth="1"/>
+    <col min="11" max="11" width="13.775" style="2" customWidth="1"/>
     <col min="12" max="12" width="11" style="2" customWidth="1"/>
-    <col min="13" max="13" width="11.88671875" style="2" customWidth="1"/>
-    <col min="14" max="14" width="11.44140625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="8.77734375" style="2"/>
-    <col min="16" max="17" width="10.33203125" style="2" customWidth="1"/>
-    <col min="18" max="18" width="12.109375" style="2" customWidth="1"/>
-    <col min="19" max="16384" width="8.77734375" style="2"/>
+    <col min="13" max="13" width="11.8833333333333" style="2" customWidth="1"/>
+    <col min="14" max="14" width="11.4416666666667" style="2" customWidth="1"/>
+    <col min="15" max="15" width="8.775" style="2"/>
+    <col min="16" max="17" width="10.3333333333333" style="2" customWidth="1"/>
+    <col min="18" max="18" width="12.1083333333333" style="2" customWidth="1"/>
+    <col min="19" max="16384" width="8.775" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="1" s="1" customFormat="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -760,181 +1334,181 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>73</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:18">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="2">
         <v>101</v>
       </c>
@@ -942,22 +1516,22 @@
         <v>1</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>78</v>
+        <v>35</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="J5" s="2">
         <v>10</v>
@@ -975,18 +1549,18 @@
         <v>3</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="Q5" s="2">
         <f>12.5*24*3600/(J5+L5+10)</f>
-        <v>7714.2857142857147</v>
+        <v>7714.28571428571</v>
       </c>
       <c r="R5" s="2">
         <f>12.5*3600/(J5+L5+10)*N5</f>
-        <v>964.28571428571433</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+        <v>964.285714285714</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="2">
         <v>102</v>
       </c>
@@ -994,22 +1568,22 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>89</v>
+        <v>43</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="J6" s="2">
         <v>10</v>
@@ -1027,18 +1601,18 @@
         <v>3</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="Q6" s="2">
         <f>12.5*24*3600/(J6+L6+10)</f>
-        <v>7714.2857142857147</v>
+        <v>7714.28571428571</v>
       </c>
       <c r="R6" s="2">
         <f>12.5*3600/(J6+L6+10)*N6</f>
-        <v>964.28571428571433</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+        <v>964.285714285714</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="2">
         <v>201</v>
       </c>
@@ -1046,22 +1620,22 @@
         <v>2</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J7" s="2">
         <v>60</v>
@@ -1087,7 +1661,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17">
       <c r="A8" s="2">
         <v>301</v>
       </c>
@@ -1095,22 +1669,22 @@
         <v>3</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>91</v>
+        <v>55</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="J8" s="2">
         <v>30</v>
@@ -1136,7 +1710,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18">
       <c r="A9" s="2">
         <v>302</v>
       </c>
@@ -1144,28 +1718,28 @@
         <v>3</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="J9" s="2">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="K9" s="2">
         <v>5</v>
@@ -1180,18 +1754,18 @@
         <v>3</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="Q9" s="2">
         <f>6.5*24*3600/(J9+L9+10)</f>
-        <v>3744</v>
+        <v>4287.02290076336</v>
       </c>
       <c r="R9" s="2">
         <f>6.5*3600/(J9+L9+10)*N9</f>
-        <v>468</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+        <v>535.87786259542</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="2">
         <v>303</v>
       </c>
@@ -1199,28 +1773,28 @@
         <v>3</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="J10" s="2">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K10" s="2">
         <v>5</v>
@@ -1235,18 +1809,18 @@
         <v>3</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="Q10" s="2">
         <f>6.5*24*3600/(J10+L10+10)</f>
-        <v>3744</v>
+        <v>3873.10344827586</v>
       </c>
       <c r="R10" s="2">
         <f>6.5*3600/(J10+L10+10)*N10</f>
-        <v>468</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+        <v>484.137931034483</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="2">
         <v>401</v>
       </c>
@@ -1254,22 +1828,22 @@
         <v>4</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="J11" s="2">
         <v>30</v>
@@ -1295,7 +1869,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17">
       <c r="A12" s="2">
         <v>402</v>
       </c>
@@ -1303,22 +1877,22 @@
         <v>4</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="J12" s="2">
         <v>60</v>
@@ -1344,7 +1918,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17">
       <c r="A13" s="2">
         <v>501</v>
       </c>
@@ -1352,22 +1926,22 @@
         <v>5</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>86</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="J13" s="2">
         <v>90</v>
@@ -1393,7 +1967,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17">
       <c r="A14" s="2">
         <v>601</v>
       </c>
@@ -1401,22 +1975,22 @@
         <v>6</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="J14" s="2">
         <v>90</v>
@@ -1442,130 +2016,130 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="4:5">
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7">
       <c r="B22"/>
       <c r="C22"/>
       <c r="F22"/>
       <c r="G22"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7">
       <c r="B23"/>
       <c r="C23"/>
       <c r="F23"/>
       <c r="G23"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7">
       <c r="B24"/>
       <c r="C24"/>
       <c r="F24"/>
       <c r="G24"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7">
       <c r="B25"/>
       <c r="C25"/>
       <c r="F25"/>
       <c r="G25"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7">
       <c r="B26"/>
       <c r="C26"/>
       <c r="F26"/>
       <c r="G26"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7">
       <c r="B27"/>
       <c r="C27"/>
       <c r="F27"/>
       <c r="G27"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:7">
       <c r="B28"/>
       <c r="C28"/>
       <c r="F28"/>
       <c r="G28"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7">
       <c r="B29"/>
       <c r="C29"/>
       <c r="F29"/>
       <c r="G29"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7">
       <c r="B30"/>
       <c r="C30"/>
       <c r="F30"/>
       <c r="G30"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:7">
       <c r="B31"/>
       <c r="C31"/>
       <c r="F31"/>
       <c r="G31"/>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:7">
       <c r="B32"/>
       <c r="C32"/>
       <c r="F32"/>
       <c r="G32"/>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7">
       <c r="B33"/>
       <c r="C33"/>
       <c r="F33"/>
       <c r="G33"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7">
       <c r="B34"/>
       <c r="C34"/>
       <c r="F34"/>
       <c r="G34"/>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7">
       <c r="B35"/>
       <c r="C35"/>
       <c r="F35"/>
       <c r="G35"/>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7">
       <c r="B36"/>
       <c r="C36"/>
       <c r="F36"/>
       <c r="G36"/>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7">
       <c r="B37"/>
       <c r="C37"/>
       <c r="F37"/>
       <c r="G37"/>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7">
       <c r="B38"/>
       <c r="C38"/>
       <c r="F38"/>
       <c r="G38"/>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7">
       <c r="B39"/>
       <c r="C39"/>
       <c r="F39"/>
       <c r="G39"/>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:7">
       <c r="B40"/>
       <c r="C40"/>
       <c r="F40"/>
       <c r="G40"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D5:G14">
+  <sortState ref="D5:G14">
     <sortCondition ref="D5"/>
   </sortState>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Tables/Sources/gameplay/MainTask/Work.xlsx
+++ b/Tables/Sources/gameplay/MainTask/Work.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ian.yin\Documents\simswordsman\Tables\Sources\gameplay\MainTask\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51ACD427-F1C3-40AF-9041-91EC0EE39FBE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="181029" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -121,12 +127,6 @@
     <t>WuWood</t>
   </si>
   <si>
-    <t>乌木，讲武堂1级解锁</t>
-  </si>
-  <si>
-    <t>乌木，用于建造、升级建筑</t>
-  </si>
-  <si>
     <t>砍伐乌木</t>
   </si>
   <si>
@@ -142,12 +142,6 @@
     <t>QingRock</t>
   </si>
   <si>
-    <t>青岩，讲武堂1级解锁</t>
-  </si>
-  <si>
-    <t>青岩，用于建造、升级建筑</t>
-  </si>
-  <si>
     <t>开采青岩</t>
   </si>
   <si>
@@ -160,12 +154,6 @@
     <t>Iron</t>
   </si>
   <si>
-    <t>黑铁，讲武堂2级解锁</t>
-  </si>
-  <si>
-    <t>黑铁，用于制造武器</t>
-  </si>
-  <si>
     <t>开采黑铁</t>
   </si>
   <si>
@@ -178,12 +166,6 @@
     <t>Chicken</t>
   </si>
   <si>
-    <t>鸡，讲武堂3级解锁</t>
-  </si>
-  <si>
-    <t>鸡，用于制作叫花鸡</t>
-  </si>
-  <si>
     <t>捉鸡</t>
   </si>
   <si>
@@ -196,12 +178,6 @@
     <t>SilverWood</t>
   </si>
   <si>
-    <t>银木，讲武堂3级解锁</t>
-  </si>
-  <si>
-    <t>银木，用于建造、升级建筑</t>
-  </si>
-  <si>
     <t>砍伐银木</t>
   </si>
   <si>
@@ -217,12 +193,6 @@
     <t>CloudRock</t>
   </si>
   <si>
-    <t>云岩，讲武堂3级解锁</t>
-  </si>
-  <si>
-    <t>云岩，用于建造、升级建筑</t>
-  </si>
-  <si>
     <t>开采云岩</t>
   </si>
   <si>
@@ -238,12 +208,6 @@
     <t>Fish</t>
   </si>
   <si>
-    <t>鱼，讲武堂4级解锁</t>
-  </si>
-  <si>
-    <t>鱼，用于制作掌上明珠</t>
-  </si>
-  <si>
     <t>钓鱼</t>
   </si>
   <si>
@@ -256,12 +220,6 @@
     <t>Vine</t>
   </si>
   <si>
-    <t>紫藤，讲武堂4级解锁</t>
-  </si>
-  <si>
-    <t>紫藤，用于制造护甲</t>
-  </si>
-  <si>
     <t>采集紫藤</t>
   </si>
   <si>
@@ -274,12 +232,6 @@
     <t>Well</t>
   </si>
   <si>
-    <t>古井水，讲武堂5级解锁</t>
-  </si>
-  <si>
-    <t>古井水，用于制作莲花清神露</t>
-  </si>
-  <si>
     <t>打井水</t>
   </si>
   <si>
@@ -292,12 +244,6 @@
     <t>Ganoderma</t>
   </si>
   <si>
-    <t>灵芝，讲武堂6级解锁</t>
-  </si>
-  <si>
-    <t>灵芝，用于制作还魂丹</t>
-  </si>
-  <si>
     <t>采集灵芝</t>
   </si>
   <si>
@@ -305,19 +251,92 @@
   </si>
   <si>
     <t>Item|1020|1_2</t>
+  </si>
+  <si>
+    <t>青岩;用于建造、升级建筑</t>
+  </si>
+  <si>
+    <t>乌木;用于建造、升级建筑</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑铁;用于制造武器</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸡;用于制作叫花鸡</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>银木;用于建造、升级建筑</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>云岩;用于建造、升级建筑</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼;用于制作掌上明珠</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫藤;用于制造护甲</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>古井水;用于制作莲花清神露</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵芝;用于制作还魂丹</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>乌木;讲武堂1级解锁</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>青岩;讲武堂1级解锁</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑铁;讲武堂2级解锁</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸡;讲武堂3级解锁</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>银木;讲武堂3级解锁</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>云岩;讲武堂3级解锁</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼;讲武堂4级解锁</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫藤;讲武堂4级解锁</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>古井水;讲武堂5级解锁</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵芝;讲武堂6级解锁</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -340,151 +359,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -493,198 +382,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.349986266670736"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -707,252 +410,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -967,69 +428,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="常规 2 2" xfId="44"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="46" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="48" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="49" builtinId="52"/>
+    <cellStyle name="常规 2 2" xfId="1" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1287,43 +704,42 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="J11" sqref="J11"/>
+      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.775" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.21666666666667" style="2" customWidth="1"/>
-    <col min="2" max="2" width="6.33333333333333" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.3333333333333" style="2" customWidth="1"/>
-    <col min="4" max="4" width="23.775" customWidth="1"/>
-    <col min="5" max="5" width="27.1083333333333" customWidth="1"/>
+    <col min="1" max="1" width="7.21875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="23.77734375" customWidth="1"/>
+    <col min="5" max="5" width="27.109375" customWidth="1"/>
     <col min="6" max="6" width="10" style="2" customWidth="1"/>
-    <col min="7" max="7" width="42.775" style="2" customWidth="1"/>
-    <col min="8" max="8" width="15.1083333333333" style="2" customWidth="1"/>
-    <col min="9" max="9" width="12.8833333333333" style="2" customWidth="1"/>
-    <col min="10" max="10" width="10.3333333333333" style="2" customWidth="1"/>
-    <col min="11" max="11" width="13.775" style="2" customWidth="1"/>
+    <col min="7" max="7" width="42.77734375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="15.109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="12.88671875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="13.77734375" style="2" customWidth="1"/>
     <col min="12" max="12" width="11" style="2" customWidth="1"/>
-    <col min="13" max="13" width="11.8833333333333" style="2" customWidth="1"/>
-    <col min="14" max="14" width="11.4416666666667" style="2" customWidth="1"/>
-    <col min="15" max="15" width="8.775" style="2"/>
-    <col min="16" max="17" width="10.3333333333333" style="2" customWidth="1"/>
-    <col min="18" max="18" width="12.1083333333333" style="2" customWidth="1"/>
-    <col min="19" max="16384" width="8.775" style="2"/>
+    <col min="13" max="13" width="11.88671875" style="2" customWidth="1"/>
+    <col min="14" max="14" width="11.44140625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="8.77734375" style="2"/>
+    <col min="16" max="17" width="10.33203125" style="2" customWidth="1"/>
+    <col min="18" max="18" width="12.109375" style="2" customWidth="1"/>
+    <col min="19" max="16384" width="8.77734375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:14">
+    <row r="1" spans="1:18" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1367,7 +783,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:14">
+    <row r="2" spans="1:18" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -1411,7 +827,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:14">
+    <row r="3" spans="1:18" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
@@ -1455,7 +871,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:18">
+    <row r="4" spans="1:18" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -1508,7 +924,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>101</v>
       </c>
@@ -1518,20 +934,20 @@
       <c r="C5" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="G5" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="H5" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="J5" s="2">
         <v>10</v>
@@ -1549,18 +965,18 @@
         <v>3</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="Q5" s="2">
         <f>12.5*24*3600/(J5+L5+10)</f>
-        <v>7714.28571428571</v>
+        <v>7714.2857142857147</v>
       </c>
       <c r="R5" s="2">
         <f>12.5*3600/(J5+L5+10)*N5</f>
-        <v>964.285714285714</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>964.28571428571433</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>102</v>
       </c>
@@ -1568,22 +984,22 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="H6" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="J6" s="2">
         <v>10</v>
@@ -1601,18 +1017,18 @@
         <v>3</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="2">
         <f>12.5*24*3600/(J6+L6+10)</f>
-        <v>7714.28571428571</v>
+        <v>7714.2857142857147</v>
       </c>
       <c r="R6" s="2">
         <f>12.5*3600/(J6+L6+10)*N6</f>
-        <v>964.285714285714</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>964.28571428571433</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>201</v>
       </c>
@@ -1620,22 +1036,22 @@
         <v>2</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>49</v>
+        <v>43</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="J7" s="2">
         <v>60</v>
@@ -1661,7 +1077,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>301</v>
       </c>
@@ -1669,22 +1085,22 @@
         <v>3</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>55</v>
+        <v>47</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>80</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="J8" s="2">
         <v>30</v>
@@ -1710,7 +1126,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>302</v>
       </c>
@@ -1718,25 +1134,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>61</v>
+        <v>51</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="J9" s="2">
         <v>1</v>
@@ -1754,18 +1170,18 @@
         <v>3</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="Q9" s="2">
         <f>6.5*24*3600/(J9+L9+10)</f>
-        <v>4287.02290076336</v>
+        <v>4287.0229007633588</v>
       </c>
       <c r="R9" s="2">
         <f>6.5*3600/(J9+L9+10)*N9</f>
-        <v>535.87786259542</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>535.87786259541986</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>303</v>
       </c>
@@ -1773,25 +1189,25 @@
         <v>3</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>68</v>
+        <v>56</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>82</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="J10" s="2">
         <v>15</v>
@@ -1809,18 +1225,18 @@
         <v>3</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="Q10" s="2">
         <f>6.5*24*3600/(J10+L10+10)</f>
-        <v>3873.10344827586</v>
+        <v>3873.1034482758619</v>
       </c>
       <c r="R10" s="2">
         <f>6.5*3600/(J10+L10+10)*N10</f>
-        <v>484.137931034483</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>484.13793103448279</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>401</v>
       </c>
@@ -1828,22 +1244,22 @@
         <v>4</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>75</v>
+        <v>61</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>83</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="J11" s="2">
         <v>30</v>
@@ -1869,7 +1285,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>402</v>
       </c>
@@ -1877,22 +1293,22 @@
         <v>4</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>81</v>
+        <v>65</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>84</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="J12" s="2">
         <v>60</v>
@@ -1918,7 +1334,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>501</v>
       </c>
@@ -1926,22 +1342,22 @@
         <v>5</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>87</v>
-      </c>
       <c r="F13" s="3" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="J13" s="2">
         <v>90</v>
@@ -1967,7 +1383,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>601</v>
       </c>
@@ -1975,22 +1391,22 @@
         <v>6</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>93</v>
+        <v>73</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>86</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="J14" s="2">
         <v>90</v>
@@ -2016,130 +1432,130 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="4:5">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
-    <row r="22" spans="2:7">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22"/>
       <c r="C22"/>
       <c r="F22"/>
       <c r="G22"/>
     </row>
-    <row r="23" spans="2:7">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23"/>
       <c r="C23"/>
       <c r="F23"/>
       <c r="G23"/>
     </row>
-    <row r="24" spans="2:7">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24"/>
       <c r="C24"/>
       <c r="F24"/>
       <c r="G24"/>
     </row>
-    <row r="25" spans="2:7">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25"/>
       <c r="C25"/>
       <c r="F25"/>
       <c r="G25"/>
     </row>
-    <row r="26" spans="2:7">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26"/>
       <c r="C26"/>
       <c r="F26"/>
       <c r="G26"/>
     </row>
-    <row r="27" spans="2:7">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27"/>
       <c r="C27"/>
       <c r="F27"/>
       <c r="G27"/>
     </row>
-    <row r="28" spans="2:7">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28"/>
       <c r="C28"/>
       <c r="F28"/>
       <c r="G28"/>
     </row>
-    <row r="29" spans="2:7">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29"/>
       <c r="C29"/>
       <c r="F29"/>
       <c r="G29"/>
     </row>
-    <row r="30" spans="2:7">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30"/>
       <c r="C30"/>
       <c r="F30"/>
       <c r="G30"/>
     </row>
-    <row r="31" spans="2:7">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31"/>
       <c r="C31"/>
       <c r="F31"/>
       <c r="G31"/>
     </row>
-    <row r="32" spans="2:7">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32"/>
       <c r="C32"/>
       <c r="F32"/>
       <c r="G32"/>
     </row>
-    <row r="33" spans="2:7">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33"/>
       <c r="C33"/>
       <c r="F33"/>
       <c r="G33"/>
     </row>
-    <row r="34" spans="2:7">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34"/>
       <c r="C34"/>
       <c r="F34"/>
       <c r="G34"/>
     </row>
-    <row r="35" spans="2:7">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35"/>
       <c r="C35"/>
       <c r="F35"/>
       <c r="G35"/>
     </row>
-    <row r="36" spans="2:7">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36"/>
       <c r="C36"/>
       <c r="F36"/>
       <c r="G36"/>
     </row>
-    <row r="37" spans="2:7">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37"/>
       <c r="C37"/>
       <c r="F37"/>
       <c r="G37"/>
     </row>
-    <row r="38" spans="2:7">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B38"/>
       <c r="C38"/>
       <c r="F38"/>
       <c r="G38"/>
     </row>
-    <row r="39" spans="2:7">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39"/>
       <c r="C39"/>
       <c r="F39"/>
       <c r="G39"/>
     </row>
-    <row r="40" spans="2:7">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B40"/>
       <c r="C40"/>
       <c r="F40"/>
       <c r="G40"/>
     </row>
   </sheetData>
-  <sortState ref="D5:G14">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D5:G14">
     <sortCondition ref="D5"/>
   </sortState>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Tables/Sources/gameplay/MainTask/Work.xlsx
+++ b/Tables/Sources/gameplay/MainTask/Work.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ian.yin\Documents\simswordsman\Tables\Sources\gameplay\MainTask\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51ACD427-F1C3-40AF-9041-91EC0EE39FBE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="sheet" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -127,6 +121,12 @@
     <t>WuWood</t>
   </si>
   <si>
+    <t>乌木;讲武堂1级解锁</t>
+  </si>
+  <si>
+    <t>乌木;用于建造、升级建筑</t>
+  </si>
+  <si>
     <t>砍伐乌木</t>
   </si>
   <si>
@@ -142,6 +142,12 @@
     <t>QingRock</t>
   </si>
   <si>
+    <t>青岩;讲武堂1级解锁</t>
+  </si>
+  <si>
+    <t>青岩;用于建造、升级建筑</t>
+  </si>
+  <si>
     <t>开采青岩</t>
   </si>
   <si>
@@ -154,6 +160,12 @@
     <t>Iron</t>
   </si>
   <si>
+    <t>黑铁;讲武堂2级解锁</t>
+  </si>
+  <si>
+    <t>黑铁;用于制造武器</t>
+  </si>
+  <si>
     <t>开采黑铁</t>
   </si>
   <si>
@@ -166,6 +178,12 @@
     <t>Chicken</t>
   </si>
   <si>
+    <t>鸡;讲武堂3级解锁</t>
+  </si>
+  <si>
+    <t>鸡;用于制作叫花鸡</t>
+  </si>
+  <si>
     <t>捉鸡</t>
   </si>
   <si>
@@ -178,6 +196,12 @@
     <t>SilverWood</t>
   </si>
   <si>
+    <t>银木;讲武堂3级解锁</t>
+  </si>
+  <si>
+    <t>银木;用于建造、升级建筑</t>
+  </si>
+  <si>
     <t>砍伐银木</t>
   </si>
   <si>
@@ -193,6 +217,12 @@
     <t>CloudRock</t>
   </si>
   <si>
+    <t>云岩;讲武堂3级解锁</t>
+  </si>
+  <si>
+    <t>云岩;用于建造、升级建筑</t>
+  </si>
+  <si>
     <t>开采云岩</t>
   </si>
   <si>
@@ -208,6 +238,12 @@
     <t>Fish</t>
   </si>
   <si>
+    <t>鱼;讲武堂4级解锁</t>
+  </si>
+  <si>
+    <t>鱼;用于制作掌上明珠</t>
+  </si>
+  <si>
     <t>钓鱼</t>
   </si>
   <si>
@@ -220,6 +256,12 @@
     <t>Vine</t>
   </si>
   <si>
+    <t>紫藤;讲武堂4级解锁</t>
+  </si>
+  <si>
+    <t>紫藤;用于制造护甲</t>
+  </si>
+  <si>
     <t>采集紫藤</t>
   </si>
   <si>
@@ -232,6 +274,12 @@
     <t>Well</t>
   </si>
   <si>
+    <t>古井水;讲武堂5级解锁</t>
+  </si>
+  <si>
+    <t>古井水;用于制作莲花清神露</t>
+  </si>
+  <si>
     <t>打井水</t>
   </si>
   <si>
@@ -244,6 +292,12 @@
     <t>Ganoderma</t>
   </si>
   <si>
+    <t>灵芝;讲武堂6级解锁</t>
+  </si>
+  <si>
+    <t>灵芝;用于制作还魂丹</t>
+  </si>
+  <si>
     <t>采集灵芝</t>
   </si>
   <si>
@@ -251,92 +305,19 @@
   </si>
   <si>
     <t>Item|1020|1_2</t>
-  </si>
-  <si>
-    <t>青岩;用于建造、升级建筑</t>
-  </si>
-  <si>
-    <t>乌木;用于建造、升级建筑</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑铁;用于制造武器</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>鸡;用于制作叫花鸡</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>银木;用于建造、升级建筑</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>云岩;用于建造、升级建筑</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼;用于制作掌上明珠</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>紫藤;用于制造护甲</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>古井水;用于制作莲花清神露</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>灵芝;用于制作还魂丹</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>乌木;讲武堂1级解锁</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>青岩;讲武堂1级解锁</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑铁;讲武堂2级解锁</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>鸡;讲武堂3级解锁</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>银木;讲武堂3级解锁</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>云岩;讲武堂3级解锁</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼;讲武堂4级解锁</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>紫藤;讲武堂4级解锁</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>古井水;讲武堂5级解锁</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>灵芝;讲武堂6级解锁</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -359,21 +340,151 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -382,12 +493,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <fgColor theme="0" tint="-0.349986266670736"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -410,10 +707,252 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -428,25 +967,69 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2 2" xfId="1" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="常规 2 2" xfId="44"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="46" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="48" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="49" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -704,42 +1287,43 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:R40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.775" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="7.21875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="6.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="23.77734375" customWidth="1"/>
-    <col min="5" max="5" width="27.109375" customWidth="1"/>
+    <col min="1" max="1" width="7.21666666666667" style="2" customWidth="1"/>
+    <col min="2" max="2" width="6.33333333333333" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.3333333333333" style="2" customWidth="1"/>
+    <col min="4" max="4" width="23.775" customWidth="1"/>
+    <col min="5" max="5" width="27.1083333333333" customWidth="1"/>
     <col min="6" max="6" width="10" style="2" customWidth="1"/>
-    <col min="7" max="7" width="42.77734375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="15.109375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="12.88671875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="10.33203125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="13.77734375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="42.775" style="2" customWidth="1"/>
+    <col min="8" max="8" width="15.1083333333333" style="2" customWidth="1"/>
+    <col min="9" max="9" width="12.8833333333333" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.3333333333333" style="2" customWidth="1"/>
+    <col min="11" max="11" width="13.775" style="2" customWidth="1"/>
     <col min="12" max="12" width="11" style="2" customWidth="1"/>
-    <col min="13" max="13" width="11.88671875" style="2" customWidth="1"/>
-    <col min="14" max="14" width="11.44140625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="8.77734375" style="2"/>
-    <col min="16" max="17" width="10.33203125" style="2" customWidth="1"/>
-    <col min="18" max="18" width="12.109375" style="2" customWidth="1"/>
-    <col min="19" max="16384" width="8.77734375" style="2"/>
+    <col min="13" max="13" width="11.8833333333333" style="2" customWidth="1"/>
+    <col min="14" max="14" width="11.4416666666667" style="2" customWidth="1"/>
+    <col min="15" max="15" width="8.775" style="2"/>
+    <col min="16" max="17" width="10.3333333333333" style="2" customWidth="1"/>
+    <col min="18" max="18" width="12.1083333333333" style="2" customWidth="1"/>
+    <col min="19" max="16384" width="8.775" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="1" s="1" customFormat="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -783,7 +1367,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="2" s="1" customFormat="1" spans="1:14">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -827,7 +1411,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="3" s="1" customFormat="1" spans="1:14">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
@@ -871,7 +1455,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="4" s="1" customFormat="1" spans="1:18">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -924,7 +1508,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18">
       <c r="A5" s="2">
         <v>101</v>
       </c>
@@ -934,20 +1518,20 @@
       <c r="C5" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>78</v>
+      <c r="D5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J5" s="2">
         <v>10</v>
@@ -956,7 +1540,7 @@
         <v>5</v>
       </c>
       <c r="L5" s="2">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="M5" s="2">
         <v>1</v>
@@ -965,18 +1549,18 @@
         <v>3</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Q5" s="2">
         <f>12.5*24*3600/(J5+L5+10)</f>
-        <v>7714.2857142857147</v>
+        <v>13500</v>
       </c>
       <c r="R5" s="2">
         <f>12.5*3600/(J5+L5+10)*N5</f>
-        <v>964.28571428571433</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1687.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="2">
         <v>102</v>
       </c>
@@ -984,22 +1568,22 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>77</v>
+        <v>41</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J6" s="2">
         <v>10</v>
@@ -1008,7 +1592,7 @@
         <v>5</v>
       </c>
       <c r="L6" s="2">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="M6" s="2">
         <v>1</v>
@@ -1017,18 +1601,18 @@
         <v>3</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Q6" s="2">
         <f>12.5*24*3600/(J6+L6+10)</f>
-        <v>7714.2857142857147</v>
+        <v>13500</v>
       </c>
       <c r="R6" s="2">
         <f>12.5*3600/(J6+L6+10)*N6</f>
-        <v>964.28571428571433</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1687.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="2">
         <v>201</v>
       </c>
@@ -1036,22 +1620,22 @@
         <v>2</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>79</v>
+        <v>47</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J7" s="2">
         <v>60</v>
@@ -1060,7 +1644,7 @@
         <v>180</v>
       </c>
       <c r="L7" s="2">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="M7" s="2">
         <v>3</v>
@@ -1077,7 +1661,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17">
       <c r="A8" s="2">
         <v>301</v>
       </c>
@@ -1085,22 +1669,22 @@
         <v>3</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>80</v>
+        <v>53</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>55</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="J8" s="2">
         <v>30</v>
@@ -1109,7 +1693,7 @@
         <v>300</v>
       </c>
       <c r="L8" s="2">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="M8" s="2">
         <v>2</v>
@@ -1126,7 +1710,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18">
       <c r="A9" s="2">
         <v>302</v>
       </c>
@@ -1134,34 +1718,34 @@
         <v>3</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>81</v>
+        <v>59</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>61</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="J9" s="2">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="K9" s="2">
         <v>5</v>
       </c>
       <c r="L9" s="2">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="M9" s="2">
         <v>1</v>
@@ -1170,18 +1754,18 @@
         <v>3</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Q9" s="2">
         <f>6.5*24*3600/(J9+L9+10)</f>
-        <v>4287.0229007633588</v>
+        <v>6607.05882352941</v>
       </c>
       <c r="R9" s="2">
         <f>6.5*3600/(J9+L9+10)*N9</f>
-        <v>535.87786259541986</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+        <v>825.882352941177</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="2">
         <v>303</v>
       </c>
@@ -1189,25 +1773,25 @@
         <v>3</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>82</v>
+        <v>66</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>68</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="J10" s="2">
         <v>15</v>
@@ -1216,7 +1800,7 @@
         <v>5</v>
       </c>
       <c r="L10" s="2">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="M10" s="2">
         <v>1</v>
@@ -1225,18 +1809,18 @@
         <v>3</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Q10" s="2">
         <f>6.5*24*3600/(J10+L10+10)</f>
-        <v>3873.1034482758619</v>
+        <v>6607.05882352941</v>
       </c>
       <c r="R10" s="2">
         <f>6.5*3600/(J10+L10+10)*N10</f>
-        <v>484.13793103448279</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+        <v>825.882352941177</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="2">
         <v>401</v>
       </c>
@@ -1244,22 +1828,22 @@
         <v>4</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>83</v>
+        <v>73</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>75</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="J11" s="2">
         <v>30</v>
@@ -1268,7 +1852,7 @@
         <v>300</v>
       </c>
       <c r="L11" s="2">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="M11" s="2">
         <v>2</v>
@@ -1285,7 +1869,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17">
       <c r="A12" s="2">
         <v>402</v>
       </c>
@@ -1293,22 +1877,22 @@
         <v>4</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E12" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H12" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="J12" s="2">
         <v>60</v>
@@ -1317,7 +1901,7 @@
         <v>180</v>
       </c>
       <c r="L12" s="2">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="M12" s="2">
         <v>3</v>
@@ -1334,7 +1918,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17">
       <c r="A13" s="2">
         <v>501</v>
       </c>
@@ -1342,22 +1926,22 @@
         <v>5</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E13" s="4" t="s">
         <v>85</v>
       </c>
+      <c r="D13" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>87</v>
+      </c>
       <c r="F13" s="3" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="J13" s="2">
         <v>90</v>
@@ -1366,7 +1950,7 @@
         <v>300</v>
       </c>
       <c r="L13" s="2">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="M13" s="2">
         <v>2</v>
@@ -1383,7 +1967,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17">
       <c r="A14" s="2">
         <v>601</v>
       </c>
@@ -1391,22 +1975,22 @@
         <v>6</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D14" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H14" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="J14" s="2">
         <v>90</v>
@@ -1415,7 +1999,7 @@
         <v>300</v>
       </c>
       <c r="L14" s="2">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="M14" s="2">
         <v>2</v>
@@ -1432,130 +2016,130 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="4:5">
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7">
       <c r="B22"/>
       <c r="C22"/>
       <c r="F22"/>
       <c r="G22"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7">
       <c r="B23"/>
       <c r="C23"/>
       <c r="F23"/>
       <c r="G23"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7">
       <c r="B24"/>
       <c r="C24"/>
       <c r="F24"/>
       <c r="G24"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7">
       <c r="B25"/>
       <c r="C25"/>
       <c r="F25"/>
       <c r="G25"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7">
       <c r="B26"/>
       <c r="C26"/>
       <c r="F26"/>
       <c r="G26"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7">
       <c r="B27"/>
       <c r="C27"/>
       <c r="F27"/>
       <c r="G27"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:7">
       <c r="B28"/>
       <c r="C28"/>
       <c r="F28"/>
       <c r="G28"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7">
       <c r="B29"/>
       <c r="C29"/>
       <c r="F29"/>
       <c r="G29"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7">
       <c r="B30"/>
       <c r="C30"/>
       <c r="F30"/>
       <c r="G30"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:7">
       <c r="B31"/>
       <c r="C31"/>
       <c r="F31"/>
       <c r="G31"/>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:7">
       <c r="B32"/>
       <c r="C32"/>
       <c r="F32"/>
       <c r="G32"/>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7">
       <c r="B33"/>
       <c r="C33"/>
       <c r="F33"/>
       <c r="G33"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7">
       <c r="B34"/>
       <c r="C34"/>
       <c r="F34"/>
       <c r="G34"/>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7">
       <c r="B35"/>
       <c r="C35"/>
       <c r="F35"/>
       <c r="G35"/>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7">
       <c r="B36"/>
       <c r="C36"/>
       <c r="F36"/>
       <c r="G36"/>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7">
       <c r="B37"/>
       <c r="C37"/>
       <c r="F37"/>
       <c r="G37"/>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7">
       <c r="B38"/>
       <c r="C38"/>
       <c r="F38"/>
       <c r="G38"/>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7">
       <c r="B39"/>
       <c r="C39"/>
       <c r="F39"/>
       <c r="G39"/>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:7">
       <c r="B40"/>
       <c r="C40"/>
       <c r="F40"/>
       <c r="G40"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D5:G14">
+  <sortState ref="D5:G14">
     <sortCondition ref="D5"/>
   </sortState>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Tables/Sources/gameplay/MainTask/Work.xlsx
+++ b/Tables/Sources/gameplay/MainTask/Work.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ian.yin\Documents\simswordsman\Tables\Sources\gameplay\MainTask\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A280FEAA-F07B-4A48-ADA7-200B71C21500}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="181029" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -178,9 +184,6 @@
     <t>Chicken</t>
   </si>
   <si>
-    <t>鸡;讲武堂3级解锁</t>
-  </si>
-  <si>
     <t>鸡;用于制作叫花鸡</t>
   </si>
   <si>
@@ -238,9 +241,6 @@
     <t>Fish</t>
   </si>
   <si>
-    <t>鱼;讲武堂4级解锁</t>
-  </si>
-  <si>
     <t>鱼;用于制作掌上明珠</t>
   </si>
   <si>
@@ -305,19 +305,21 @@
   </si>
   <si>
     <t>Item|1020|1_2</t>
+  </si>
+  <si>
+    <t>鸡;讲武堂3级可以养殖</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>钓鱼;讲武堂4级解锁</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -340,151 +342,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <sz val="9"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -493,198 +365,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.349986266670736"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -707,256 +393,14 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -973,63 +417,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="常规 2 2" xfId="44"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="46" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="48" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="49" builtinId="52"/>
+    <cellStyle name="常规 2 2" xfId="1" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1287,43 +690,42 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="L15" sqref="L15"/>
+      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.775" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.21666666666667" style="2" customWidth="1"/>
-    <col min="2" max="2" width="6.33333333333333" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.3333333333333" style="2" customWidth="1"/>
-    <col min="4" max="4" width="23.775" customWidth="1"/>
-    <col min="5" max="5" width="27.1083333333333" customWidth="1"/>
+    <col min="1" max="1" width="7.21875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="23.77734375" customWidth="1"/>
+    <col min="5" max="5" width="27.109375" customWidth="1"/>
     <col min="6" max="6" width="10" style="2" customWidth="1"/>
-    <col min="7" max="7" width="42.775" style="2" customWidth="1"/>
-    <col min="8" max="8" width="15.1083333333333" style="2" customWidth="1"/>
-    <col min="9" max="9" width="12.8833333333333" style="2" customWidth="1"/>
-    <col min="10" max="10" width="10.3333333333333" style="2" customWidth="1"/>
-    <col min="11" max="11" width="13.775" style="2" customWidth="1"/>
+    <col min="7" max="7" width="42.77734375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="15.109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="12.88671875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="13.77734375" style="2" customWidth="1"/>
     <col min="12" max="12" width="11" style="2" customWidth="1"/>
-    <col min="13" max="13" width="11.8833333333333" style="2" customWidth="1"/>
-    <col min="14" max="14" width="11.4416666666667" style="2" customWidth="1"/>
-    <col min="15" max="15" width="8.775" style="2"/>
-    <col min="16" max="17" width="10.3333333333333" style="2" customWidth="1"/>
-    <col min="18" max="18" width="12.1083333333333" style="2" customWidth="1"/>
-    <col min="19" max="16384" width="8.775" style="2"/>
+    <col min="13" max="13" width="11.88671875" style="2" customWidth="1"/>
+    <col min="14" max="14" width="11.44140625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="8.77734375" style="2"/>
+    <col min="16" max="17" width="10.33203125" style="2" customWidth="1"/>
+    <col min="18" max="18" width="12.109375" style="2" customWidth="1"/>
+    <col min="19" max="16384" width="8.77734375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:14">
+    <row r="1" spans="1:18" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1367,7 +769,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:14">
+    <row r="2" spans="1:18" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -1411,7 +813,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:14">
+    <row r="3" spans="1:18" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
@@ -1455,7 +857,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:18">
+    <row r="4" spans="1:18" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -1508,7 +910,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>101</v>
       </c>
@@ -1560,7 +962,7 @@
         <v>1687.5</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>102</v>
       </c>
@@ -1612,7 +1014,7 @@
         <v>1687.5</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>201</v>
       </c>
@@ -1661,7 +1063,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>301</v>
       </c>
@@ -1672,19 +1074,19 @@
         <v>53</v>
       </c>
       <c r="D8" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="F8" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="G8" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="H8" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="J8" s="2">
         <v>30</v>
@@ -1710,7 +1112,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>302</v>
       </c>
@@ -1718,25 +1120,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="E9" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="F9" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="G9" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="H9" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="I9" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="J9" s="2">
         <v>15</v>
@@ -1758,14 +1160,14 @@
       </c>
       <c r="Q9" s="2">
         <f>6.5*24*3600/(J9+L9+10)</f>
-        <v>6607.05882352941</v>
+        <v>6607.0588235294117</v>
       </c>
       <c r="R9" s="2">
         <f>6.5*3600/(J9+L9+10)*N9</f>
-        <v>825.882352941177</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>825.88235294117658</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>303</v>
       </c>
@@ -1773,25 +1175,25 @@
         <v>3</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="E10" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="F10" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="G10" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="H10" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="I10" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="J10" s="2">
         <v>15</v>
@@ -1813,14 +1215,14 @@
       </c>
       <c r="Q10" s="2">
         <f>6.5*24*3600/(J10+L10+10)</f>
-        <v>6607.05882352941</v>
+        <v>6607.0588235294117</v>
       </c>
       <c r="R10" s="2">
         <f>6.5*3600/(J10+L10+10)*N10</f>
-        <v>825.882352941177</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>825.88235294117658</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>401</v>
       </c>
@@ -1828,22 +1230,22 @@
         <v>4</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="F11" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="G11" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="H11" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="J11" s="2">
         <v>30</v>
@@ -1869,7 +1271,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>402</v>
       </c>
@@ -1877,22 +1279,22 @@
         <v>4</v>
       </c>
       <c r="C12" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="F12" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="G12" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="H12" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="J12" s="2">
         <v>60</v>
@@ -1918,7 +1320,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>501</v>
       </c>
@@ -1926,22 +1328,22 @@
         <v>5</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="F13" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="G13" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="H13" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="J13" s="2">
         <v>90</v>
@@ -1967,7 +1369,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>601</v>
       </c>
@@ -1975,22 +1377,22 @@
         <v>6</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="F14" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="G14" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="H14" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="J14" s="2">
         <v>90</v>
@@ -2016,130 +1418,130 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="4:5">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
-    <row r="22" spans="2:7">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22"/>
       <c r="C22"/>
       <c r="F22"/>
       <c r="G22"/>
     </row>
-    <row r="23" spans="2:7">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23"/>
       <c r="C23"/>
       <c r="F23"/>
       <c r="G23"/>
     </row>
-    <row r="24" spans="2:7">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24"/>
       <c r="C24"/>
       <c r="F24"/>
       <c r="G24"/>
     </row>
-    <row r="25" spans="2:7">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25"/>
       <c r="C25"/>
       <c r="F25"/>
       <c r="G25"/>
     </row>
-    <row r="26" spans="2:7">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26"/>
       <c r="C26"/>
       <c r="F26"/>
       <c r="G26"/>
     </row>
-    <row r="27" spans="2:7">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27"/>
       <c r="C27"/>
       <c r="F27"/>
       <c r="G27"/>
     </row>
-    <row r="28" spans="2:7">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28"/>
       <c r="C28"/>
       <c r="F28"/>
       <c r="G28"/>
     </row>
-    <row r="29" spans="2:7">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29"/>
       <c r="C29"/>
       <c r="F29"/>
       <c r="G29"/>
     </row>
-    <row r="30" spans="2:7">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30"/>
       <c r="C30"/>
       <c r="F30"/>
       <c r="G30"/>
     </row>
-    <row r="31" spans="2:7">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31"/>
       <c r="C31"/>
       <c r="F31"/>
       <c r="G31"/>
     </row>
-    <row r="32" spans="2:7">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32"/>
       <c r="C32"/>
       <c r="F32"/>
       <c r="G32"/>
     </row>
-    <row r="33" spans="2:7">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33"/>
       <c r="C33"/>
       <c r="F33"/>
       <c r="G33"/>
     </row>
-    <row r="34" spans="2:7">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34"/>
       <c r="C34"/>
       <c r="F34"/>
       <c r="G34"/>
     </row>
-    <row r="35" spans="2:7">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35"/>
       <c r="C35"/>
       <c r="F35"/>
       <c r="G35"/>
     </row>
-    <row r="36" spans="2:7">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36"/>
       <c r="C36"/>
       <c r="F36"/>
       <c r="G36"/>
     </row>
-    <row r="37" spans="2:7">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37"/>
       <c r="C37"/>
       <c r="F37"/>
       <c r="G37"/>
     </row>
-    <row r="38" spans="2:7">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B38"/>
       <c r="C38"/>
       <c r="F38"/>
       <c r="G38"/>
     </row>
-    <row r="39" spans="2:7">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39"/>
       <c r="C39"/>
       <c r="F39"/>
       <c r="G39"/>
     </row>
-    <row r="40" spans="2:7">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B40"/>
       <c r="C40"/>
       <c r="F40"/>
       <c r="G40"/>
     </row>
   </sheetData>
-  <sortState ref="D5:G14">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D5:G14">
     <sortCondition ref="D5"/>
   </sortState>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Tables/Sources/gameplay/MainTask/Work.xlsx
+++ b/Tables/Sources/gameplay/MainTask/Work.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ian.yin\Documents\simswordsman\Tables\Sources\gameplay\MainTask\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A280FEAA-F07B-4A48-ADA7-200B71C21500}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="sheet" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -184,6 +178,9 @@
     <t>Chicken</t>
   </si>
   <si>
+    <t>鸡;讲武堂3级可以养殖</t>
+  </si>
+  <si>
     <t>鸡;用于制作叫花鸡</t>
   </si>
   <si>
@@ -241,6 +238,9 @@
     <t>Fish</t>
   </si>
   <si>
+    <t>钓鱼;讲武堂4级解锁</t>
+  </si>
+  <si>
     <t>鱼;用于制作掌上明珠</t>
   </si>
   <si>
@@ -305,21 +305,19 @@
   </si>
   <si>
     <t>Item|1020|1_2</t>
-  </si>
-  <si>
-    <t>鸡;讲武堂3级可以养殖</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>钓鱼;讲武堂4级解锁</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -342,21 +340,151 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -365,12 +493,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <fgColor theme="0" tint="-0.349986266670736"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -393,10 +707,252 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -411,28 +967,72 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2 2" xfId="1" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="常规 2 2" xfId="44"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="46" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="48" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="49" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -690,42 +1290,43 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:R40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.775" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="7.21875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="6.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="23.77734375" customWidth="1"/>
-    <col min="5" max="5" width="27.109375" customWidth="1"/>
+    <col min="1" max="1" width="7.21666666666667" style="2" customWidth="1"/>
+    <col min="2" max="2" width="6.33333333333333" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.3333333333333" style="2" customWidth="1"/>
+    <col min="4" max="4" width="23.775" customWidth="1"/>
+    <col min="5" max="5" width="27.1083333333333" customWidth="1"/>
     <col min="6" max="6" width="10" style="2" customWidth="1"/>
-    <col min="7" max="7" width="42.77734375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="15.109375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="12.88671875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="10.33203125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="13.77734375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="42.775" style="2" customWidth="1"/>
+    <col min="8" max="8" width="15.1083333333333" style="2" customWidth="1"/>
+    <col min="9" max="9" width="12.8833333333333" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.3333333333333" style="2" customWidth="1"/>
+    <col min="11" max="11" width="13.775" style="2" customWidth="1"/>
     <col min="12" max="12" width="11" style="2" customWidth="1"/>
-    <col min="13" max="13" width="11.88671875" style="2" customWidth="1"/>
-    <col min="14" max="14" width="11.44140625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="8.77734375" style="2"/>
-    <col min="16" max="17" width="10.33203125" style="2" customWidth="1"/>
-    <col min="18" max="18" width="12.109375" style="2" customWidth="1"/>
-    <col min="19" max="16384" width="8.77734375" style="2"/>
+    <col min="13" max="13" width="11.8833333333333" style="2" customWidth="1"/>
+    <col min="14" max="14" width="11.4416666666667" style="2" customWidth="1"/>
+    <col min="15" max="15" width="8.775" style="2"/>
+    <col min="16" max="17" width="10.3333333333333" style="2" customWidth="1"/>
+    <col min="18" max="18" width="12.1083333333333" style="2" customWidth="1"/>
+    <col min="19" max="16384" width="8.775" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="1" s="1" customFormat="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -769,7 +1370,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="2" s="1" customFormat="1" spans="1:14">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -813,7 +1414,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="3" s="1" customFormat="1" spans="1:14">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
@@ -857,7 +1458,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="4" s="1" customFormat="1" spans="1:18">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -910,7 +1511,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18">
       <c r="A5" s="2">
         <v>101</v>
       </c>
@@ -942,7 +1543,7 @@
         <v>5</v>
       </c>
       <c r="L5" s="2">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="M5" s="2">
         <v>1</v>
@@ -955,14 +1556,14 @@
       </c>
       <c r="Q5" s="2">
         <f>12.5*24*3600/(J5+L5+10)</f>
-        <v>13500</v>
+        <v>10800</v>
       </c>
       <c r="R5" s="2">
         <f>12.5*3600/(J5+L5+10)*N5</f>
-        <v>1687.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="2">
         <v>102</v>
       </c>
@@ -994,7 +1595,7 @@
         <v>5</v>
       </c>
       <c r="L6" s="2">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="M6" s="2">
         <v>1</v>
@@ -1007,14 +1608,14 @@
       </c>
       <c r="Q6" s="2">
         <f>12.5*24*3600/(J6+L6+10)</f>
-        <v>13500</v>
+        <v>10800</v>
       </c>
       <c r="R6" s="2">
         <f>12.5*3600/(J6+L6+10)*N6</f>
-        <v>1687.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="2">
         <v>201</v>
       </c>
@@ -1063,7 +1664,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17">
       <c r="A8" s="2">
         <v>301</v>
       </c>
@@ -1074,19 +1675,19 @@
         <v>53</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>95</v>
+        <v>54</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J8" s="2">
         <v>30</v>
@@ -1112,7 +1713,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18">
       <c r="A9" s="2">
         <v>302</v>
       </c>
@@ -1120,25 +1721,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J9" s="2">
         <v>15</v>
@@ -1147,7 +1748,7 @@
         <v>5</v>
       </c>
       <c r="L9" s="2">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="M9" s="2">
         <v>1</v>
@@ -1160,14 +1761,14 @@
       </c>
       <c r="Q9" s="2">
         <f>6.5*24*3600/(J9+L9+10)</f>
-        <v>6607.0588235294117</v>
+        <v>5348.57142857143</v>
       </c>
       <c r="R9" s="2">
         <f>6.5*3600/(J9+L9+10)*N9</f>
-        <v>825.88235294117658</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+        <v>668.571428571429</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="2">
         <v>303</v>
       </c>
@@ -1175,25 +1776,25 @@
         <v>3</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J10" s="2">
         <v>15</v>
@@ -1202,7 +1803,7 @@
         <v>5</v>
       </c>
       <c r="L10" s="2">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="M10" s="2">
         <v>1</v>
@@ -1215,14 +1816,14 @@
       </c>
       <c r="Q10" s="2">
         <f>6.5*24*3600/(J10+L10+10)</f>
-        <v>6607.0588235294117</v>
+        <v>5348.57142857143</v>
       </c>
       <c r="R10" s="2">
         <f>6.5*3600/(J10+L10+10)*N10</f>
-        <v>825.88235294117658</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+        <v>668.571428571429</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="2">
         <v>401</v>
       </c>
@@ -1230,22 +1831,22 @@
         <v>4</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J11" s="2">
         <v>30</v>
@@ -1271,7 +1872,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17">
       <c r="A12" s="2">
         <v>402</v>
       </c>
@@ -1279,22 +1880,22 @@
         <v>4</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J12" s="2">
         <v>60</v>
@@ -1320,7 +1921,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17">
       <c r="A13" s="2">
         <v>501</v>
       </c>
@@ -1328,22 +1929,22 @@
         <v>5</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J13" s="2">
         <v>90</v>
@@ -1369,7 +1970,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17">
       <c r="A14" s="2">
         <v>601</v>
       </c>
@@ -1377,22 +1978,22 @@
         <v>6</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="J14" s="2">
         <v>90</v>
@@ -1418,130 +2019,130 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="4:5">
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7">
       <c r="B22"/>
       <c r="C22"/>
       <c r="F22"/>
       <c r="G22"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7">
       <c r="B23"/>
       <c r="C23"/>
       <c r="F23"/>
       <c r="G23"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7">
       <c r="B24"/>
       <c r="C24"/>
       <c r="F24"/>
       <c r="G24"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7">
       <c r="B25"/>
       <c r="C25"/>
       <c r="F25"/>
       <c r="G25"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7">
       <c r="B26"/>
       <c r="C26"/>
       <c r="F26"/>
       <c r="G26"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7">
       <c r="B27"/>
       <c r="C27"/>
       <c r="F27"/>
       <c r="G27"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:7">
       <c r="B28"/>
       <c r="C28"/>
       <c r="F28"/>
       <c r="G28"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7">
       <c r="B29"/>
       <c r="C29"/>
       <c r="F29"/>
       <c r="G29"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7">
       <c r="B30"/>
       <c r="C30"/>
       <c r="F30"/>
       <c r="G30"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:7">
       <c r="B31"/>
       <c r="C31"/>
       <c r="F31"/>
       <c r="G31"/>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:7">
       <c r="B32"/>
       <c r="C32"/>
       <c r="F32"/>
       <c r="G32"/>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7">
       <c r="B33"/>
       <c r="C33"/>
       <c r="F33"/>
       <c r="G33"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7">
       <c r="B34"/>
       <c r="C34"/>
       <c r="F34"/>
       <c r="G34"/>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7">
       <c r="B35"/>
       <c r="C35"/>
       <c r="F35"/>
       <c r="G35"/>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7">
       <c r="B36"/>
       <c r="C36"/>
       <c r="F36"/>
       <c r="G36"/>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7">
       <c r="B37"/>
       <c r="C37"/>
       <c r="F37"/>
       <c r="G37"/>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7">
       <c r="B38"/>
       <c r="C38"/>
       <c r="F38"/>
       <c r="G38"/>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7">
       <c r="B39"/>
       <c r="C39"/>
       <c r="F39"/>
       <c r="G39"/>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:7">
       <c r="B40"/>
       <c r="C40"/>
       <c r="F40"/>
       <c r="G40"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D5:G14">
+  <sortState ref="D5:G14">
     <sortCondition ref="D5"/>
   </sortState>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Tables/Sources/gameplay/MainTask/Work.xlsx
+++ b/Tables/Sources/gameplay/MainTask/Work.xlsx
@@ -312,12 +312,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -336,21 +336,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -362,15 +347,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -379,6 +358,37 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -398,65 +408,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -477,6 +430,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
@@ -499,31 +492,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -535,7 +606,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -547,139 +672,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -708,6 +701,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -723,6 +731,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -734,6 +751,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -761,60 +798,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -823,140 +816,140 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -971,9 +964,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1543,7 +1533,7 @@
         <v>5</v>
       </c>
       <c r="L5" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="M5" s="2">
         <v>1</v>
@@ -1556,11 +1546,11 @@
       </c>
       <c r="Q5" s="2">
         <f>12.5*24*3600/(J5+L5+10)</f>
-        <v>10800</v>
+        <v>9818.18181818182</v>
       </c>
       <c r="R5" s="2">
         <f>12.5*3600/(J5+L5+10)*N5</f>
-        <v>1350</v>
+        <v>1227.27272727273</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -1595,7 +1585,7 @@
         <v>5</v>
       </c>
       <c r="L6" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="M6" s="2">
         <v>1</v>
@@ -1608,11 +1598,11 @@
       </c>
       <c r="Q6" s="2">
         <f>12.5*24*3600/(J6+L6+10)</f>
-        <v>10800</v>
+        <v>9818.18181818182</v>
       </c>
       <c r="R6" s="2">
         <f>12.5*3600/(J6+L6+10)*N6</f>
-        <v>1350</v>
+        <v>1227.27272727273</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1748,7 +1738,7 @@
         <v>5</v>
       </c>
       <c r="L9" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="M9" s="2">
         <v>1</v>
@@ -1761,11 +1751,11 @@
       </c>
       <c r="Q9" s="2">
         <f>6.5*24*3600/(J9+L9+10)</f>
-        <v>5348.57142857143</v>
+        <v>4883.47826086957</v>
       </c>
       <c r="R9" s="2">
         <f>6.5*3600/(J9+L9+10)*N9</f>
-        <v>668.571428571429</v>
+        <v>610.434782608696</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -1803,7 +1793,7 @@
         <v>5</v>
       </c>
       <c r="L10" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="M10" s="2">
         <v>1</v>
@@ -1816,11 +1806,11 @@
       </c>
       <c r="Q10" s="2">
         <f>6.5*24*3600/(J10+L10+10)</f>
-        <v>5348.57142857143</v>
+        <v>4883.47826086957</v>
       </c>
       <c r="R10" s="2">
         <f>6.5*3600/(J10+L10+10)*N10</f>
-        <v>668.571428571429</v>
+        <v>610.434782608696</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1833,7 +1823,7 @@
       <c r="C11" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="4" t="s">
         <v>74</v>
       </c>
       <c r="E11" s="4" t="s">

--- a/Tables/Sources/gameplay/MainTask/Work.xlsx
+++ b/Tables/Sources/gameplay/MainTask/Work.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="99">
   <si>
     <t>工作ID</t>
   </si>
@@ -40,6 +40,9 @@
     <t>工作奖励</t>
   </si>
   <si>
+    <t>特殊奖励概率，基数10000</t>
+  </si>
+  <si>
     <t>特殊奖励</t>
   </si>
   <si>
@@ -91,6 +94,9 @@
     <t>Reward</t>
   </si>
   <si>
+    <t>SpeRewardRate</t>
+  </si>
+  <si>
     <t>SpeReward</t>
   </si>
   <si>
@@ -211,7 +217,7 @@
     <t>Item|1004|15_20</t>
   </si>
   <si>
-    <t>Item|1007|0_2</t>
+    <t>Item|1007|1_2</t>
   </si>
   <si>
     <t>CloudRock</t>
@@ -232,7 +238,7 @@
     <t>Item|1003|15_20</t>
   </si>
   <si>
-    <t>Item|1008|0_2</t>
+    <t>Item|1008|1_2</t>
   </si>
   <si>
     <t>Fish</t>
@@ -313,8 +319,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -341,6 +347,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -357,40 +370,33 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -408,8 +414,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -423,34 +460,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -462,14 +476,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
@@ -492,31 +498,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -528,151 +648,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -717,30 +723,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -757,10 +739,17 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -771,15 +760,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -798,6 +778,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -807,7 +813,7 @@
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -816,136 +822,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1286,12 +1292,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R40"/>
+  <dimension ref="A1:S40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="L11" sqref="L11"/>
+      <selection pane="bottomLeft" activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.775" defaultRowHeight="14.25"/>
@@ -1304,19 +1310,20 @@
     <col min="6" max="6" width="10" style="2" customWidth="1"/>
     <col min="7" max="7" width="42.775" style="2" customWidth="1"/>
     <col min="8" max="8" width="15.1083333333333" style="2" customWidth="1"/>
-    <col min="9" max="9" width="12.8833333333333" style="2" customWidth="1"/>
-    <col min="10" max="10" width="10.3333333333333" style="2" customWidth="1"/>
-    <col min="11" max="11" width="13.775" style="2" customWidth="1"/>
-    <col min="12" max="12" width="11" style="2" customWidth="1"/>
-    <col min="13" max="13" width="11.8833333333333" style="2" customWidth="1"/>
-    <col min="14" max="14" width="11.4416666666667" style="2" customWidth="1"/>
-    <col min="15" max="15" width="8.775" style="2"/>
-    <col min="16" max="17" width="10.3333333333333" style="2" customWidth="1"/>
-    <col min="18" max="18" width="12.1083333333333" style="2" customWidth="1"/>
-    <col min="19" max="16384" width="8.775" style="2"/>
+    <col min="9" max="9" width="20.25" style="2" customWidth="1"/>
+    <col min="10" max="10" width="12.8833333333333" style="2" customWidth="1"/>
+    <col min="11" max="11" width="10.3333333333333" style="2" customWidth="1"/>
+    <col min="12" max="12" width="13.775" style="2" customWidth="1"/>
+    <col min="13" max="13" width="11" style="2" customWidth="1"/>
+    <col min="14" max="14" width="11.8833333333333" style="2" customWidth="1"/>
+    <col min="15" max="15" width="11.4416666666667" style="2" customWidth="1"/>
+    <col min="16" max="16" width="8.775" style="2"/>
+    <col min="17" max="18" width="10.3333333333333" style="2" customWidth="1"/>
+    <col min="19" max="19" width="12.1083333333333" style="2" customWidth="1"/>
+    <col min="20" max="16384" width="8.775" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:14">
+    <row r="1" s="1" customFormat="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1359,149 +1366,161 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:14">
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:14">
+        <v>15</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:15">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:18">
+        <v>16</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:19">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P4" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="O4" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="Q4" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>34</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="2">
         <v>101</v>
       </c>
@@ -1509,51 +1528,51 @@
         <v>1</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="J5" s="2">
+        <v>41</v>
+      </c>
+      <c r="K5" s="2">
         <v>10</v>
       </c>
-      <c r="K5" s="2">
+      <c r="L5" s="2">
         <v>5</v>
       </c>
-      <c r="L5" s="2">
+      <c r="M5" s="2">
         <v>90</v>
       </c>
-      <c r="M5" s="2">
+      <c r="N5" s="2">
         <v>1</v>
       </c>
-      <c r="N5" s="2">
+      <c r="O5" s="2">
         <v>3</v>
       </c>
-      <c r="P5" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q5" s="2">
-        <f>12.5*24*3600/(J5+L5+10)</f>
+      <c r="Q5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R5" s="2">
+        <f>12.5*24*3600/(K5+M5+10)</f>
         <v>9818.18181818182</v>
       </c>
-      <c r="R5" s="2">
-        <f>12.5*3600/(J5+L5+10)*N5</f>
+      <c r="S5" s="2">
+        <f>12.5*3600/(K5+M5+10)*O5</f>
         <v>1227.27272727273</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:19">
       <c r="A6" s="2">
         <v>102</v>
       </c>
@@ -1561,51 +1580,51 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K6" s="2">
+        <v>10</v>
+      </c>
+      <c r="L6" s="2">
+        <v>5</v>
+      </c>
+      <c r="M6" s="2">
+        <v>90</v>
+      </c>
+      <c r="N6" s="2">
+        <v>1</v>
+      </c>
+      <c r="O6" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q6" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="J6" s="2">
-        <v>10</v>
-      </c>
-      <c r="K6" s="2">
-        <v>5</v>
-      </c>
-      <c r="L6" s="2">
-        <v>90</v>
-      </c>
-      <c r="M6" s="2">
-        <v>1</v>
-      </c>
-      <c r="N6" s="2">
-        <v>3</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q6" s="2">
-        <f>12.5*24*3600/(J6+L6+10)</f>
+      <c r="R6" s="2">
+        <f>12.5*24*3600/(K6+M6+10)</f>
         <v>9818.18181818182</v>
       </c>
-      <c r="R6" s="2">
-        <f>12.5*3600/(J6+L6+10)*N6</f>
+      <c r="S6" s="2">
+        <f>12.5*3600/(K6+M6+10)*O6</f>
         <v>1227.27272727273</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:18">
       <c r="A7" s="2">
         <v>201</v>
       </c>
@@ -1613,48 +1632,48 @@
         <v>2</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="J7" s="2">
+        <v>54</v>
+      </c>
+      <c r="K7" s="2">
         <v>60</v>
-      </c>
-      <c r="K7" s="2">
-        <v>180</v>
       </c>
       <c r="L7" s="2">
         <v>180</v>
       </c>
       <c r="M7" s="2">
+        <v>180</v>
+      </c>
+      <c r="N7" s="2">
         <v>3</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>1</v>
       </c>
-      <c r="P7" s="2">
-        <f>4*M7</f>
+      <c r="Q7" s="2">
+        <f>4*N7</f>
         <v>12</v>
       </c>
-      <c r="Q7" s="2">
-        <f>4*24*60/K7</f>
+      <c r="R7" s="2">
+        <f>4*24*60/L7</f>
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:18">
       <c r="A8" s="2">
         <v>301</v>
       </c>
@@ -1662,48 +1681,48 @@
         <v>3</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="J8" s="2">
+        <v>60</v>
+      </c>
+      <c r="K8" s="2">
         <v>30</v>
       </c>
-      <c r="K8" s="2">
+      <c r="L8" s="2">
         <v>300</v>
       </c>
-      <c r="L8" s="2">
+      <c r="M8" s="2">
         <v>180</v>
       </c>
-      <c r="M8" s="2">
+      <c r="N8" s="2">
         <v>2</v>
       </c>
-      <c r="N8" s="2">
+      <c r="O8" s="2">
         <v>1</v>
       </c>
-      <c r="P8" s="2">
-        <f>2.5*M8</f>
+      <c r="Q8" s="2">
+        <f>2.5*N8</f>
         <v>5</v>
       </c>
-      <c r="Q8" s="2">
-        <f>2.5*24*60/K8</f>
+      <c r="R8" s="2">
+        <f>2.5*24*60/L8</f>
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:19">
       <c r="A9" s="2">
         <v>302</v>
       </c>
@@ -1711,54 +1730,57 @@
         <v>3</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="J9" s="2">
+        <v>66</v>
+      </c>
+      <c r="I9" s="2">
+        <v>1000</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K9" s="2">
         <v>15</v>
       </c>
-      <c r="K9" s="2">
+      <c r="L9" s="2">
         <v>5</v>
       </c>
-      <c r="L9" s="2">
+      <c r="M9" s="2">
         <v>90</v>
       </c>
-      <c r="M9" s="2">
+      <c r="N9" s="2">
         <v>1</v>
       </c>
-      <c r="N9" s="2">
+      <c r="O9" s="2">
         <v>3</v>
       </c>
-      <c r="P9" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q9" s="2">
-        <f>6.5*24*3600/(J9+L9+10)</f>
+      <c r="Q9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R9" s="2">
+        <f>6.5*24*3600/(K9+M9+10)</f>
         <v>4883.47826086957</v>
       </c>
-      <c r="R9" s="2">
-        <f>6.5*3600/(J9+L9+10)*N9</f>
+      <c r="S9" s="2">
+        <f>6.5*3600/(K9+M9+10)*O9</f>
         <v>610.434782608696</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:19">
       <c r="A10" s="2">
         <v>303</v>
       </c>
@@ -1766,54 +1788,57 @@
         <v>3</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="J10" s="2">
+        <v>73</v>
+      </c>
+      <c r="I10" s="2">
+        <v>1000</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K10" s="2">
         <v>15</v>
       </c>
-      <c r="K10" s="2">
+      <c r="L10" s="2">
         <v>5</v>
       </c>
-      <c r="L10" s="2">
+      <c r="M10" s="2">
         <v>90</v>
       </c>
-      <c r="M10" s="2">
+      <c r="N10" s="2">
         <v>1</v>
       </c>
-      <c r="N10" s="2">
+      <c r="O10" s="2">
         <v>3</v>
       </c>
-      <c r="P10" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q10" s="2">
-        <f>6.5*24*3600/(J10+L10+10)</f>
+      <c r="Q10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R10" s="2">
+        <f>6.5*24*3600/(K10+M10+10)</f>
         <v>4883.47826086957</v>
       </c>
-      <c r="R10" s="2">
-        <f>6.5*3600/(J10+L10+10)*N10</f>
+      <c r="S10" s="2">
+        <f>6.5*3600/(K10+M10+10)*O10</f>
         <v>610.434782608696</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:18">
       <c r="A11" s="2">
         <v>401</v>
       </c>
@@ -1821,48 +1846,48 @@
         <v>4</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="J11" s="2">
+        <v>80</v>
+      </c>
+      <c r="K11" s="2">
         <v>30</v>
       </c>
-      <c r="K11" s="2">
+      <c r="L11" s="2">
         <v>300</v>
       </c>
-      <c r="L11" s="2">
+      <c r="M11" s="2">
         <v>180</v>
       </c>
-      <c r="M11" s="2">
+      <c r="N11" s="2">
         <v>2</v>
       </c>
-      <c r="N11" s="2">
+      <c r="O11" s="2">
         <v>1</v>
       </c>
-      <c r="P11" s="2">
-        <f>2.5*M11</f>
+      <c r="Q11" s="2">
+        <f>2.5*N11</f>
         <v>5</v>
       </c>
-      <c r="Q11" s="2">
-        <f>2.5*24*60/K11</f>
+      <c r="R11" s="2">
+        <f>2.5*24*60/L11</f>
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:18">
       <c r="A12" s="2">
         <v>402</v>
       </c>
@@ -1870,48 +1895,48 @@
         <v>4</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="J12" s="2">
+        <v>86</v>
+      </c>
+      <c r="K12" s="2">
         <v>60</v>
-      </c>
-      <c r="K12" s="2">
-        <v>180</v>
       </c>
       <c r="L12" s="2">
         <v>180</v>
       </c>
       <c r="M12" s="2">
+        <v>180</v>
+      </c>
+      <c r="N12" s="2">
         <v>3</v>
       </c>
-      <c r="N12" s="2">
+      <c r="O12" s="2">
         <v>1</v>
       </c>
-      <c r="P12" s="2">
-        <f>4*M12</f>
+      <c r="Q12" s="2">
+        <f>4*N12</f>
         <v>12</v>
       </c>
-      <c r="Q12" s="2">
-        <f>4*24*60/K12</f>
+      <c r="R12" s="2">
+        <f>4*24*60/L12</f>
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:18">
       <c r="A13" s="2">
         <v>501</v>
       </c>
@@ -1919,48 +1944,48 @@
         <v>5</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H13" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K13" s="2">
         <v>90</v>
       </c>
-      <c r="J13" s="2">
-        <v>90</v>
-      </c>
-      <c r="K13" s="2">
+      <c r="L13" s="2">
         <v>300</v>
       </c>
-      <c r="L13" s="2">
+      <c r="M13" s="2">
         <v>180</v>
       </c>
-      <c r="M13" s="2">
+      <c r="N13" s="2">
         <v>2</v>
       </c>
-      <c r="N13" s="2">
+      <c r="O13" s="2">
         <v>1</v>
       </c>
-      <c r="P13" s="2">
-        <f>2.5*M13</f>
+      <c r="Q13" s="2">
+        <f>2.5*N13</f>
         <v>5</v>
       </c>
-      <c r="Q13" s="2">
-        <f>2.5*24*60/K13</f>
+      <c r="R13" s="2">
+        <f>2.5*24*60/L13</f>
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:18">
       <c r="A14" s="2">
         <v>601</v>
       </c>
@@ -1968,44 +1993,44 @@
         <v>6</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="J14" s="2">
+        <v>98</v>
+      </c>
+      <c r="K14" s="2">
         <v>90</v>
       </c>
-      <c r="K14" s="2">
+      <c r="L14" s="2">
         <v>300</v>
       </c>
-      <c r="L14" s="2">
+      <c r="M14" s="2">
         <v>180</v>
       </c>
-      <c r="M14" s="2">
+      <c r="N14" s="2">
         <v>2</v>
       </c>
-      <c r="N14" s="2">
+      <c r="O14" s="2">
         <v>1</v>
       </c>
-      <c r="P14" s="2">
-        <f>2.5*M14</f>
+      <c r="Q14" s="2">
+        <f>2.5*N14</f>
         <v>5</v>
       </c>
-      <c r="Q14" s="2">
-        <f>2.5*24*60/K14</f>
+      <c r="R14" s="2">
+        <f>2.5*24*60/L14</f>
         <v>12</v>
       </c>
     </row>

--- a/Tables/Sources/gameplay/MainTask/Work.xlsx
+++ b/Tables/Sources/gameplay/MainTask/Work.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="103">
   <si>
     <t>工作ID</t>
   </si>
@@ -40,6 +40,9 @@
     <t>工作奖励</t>
   </si>
   <si>
+    <t>奖励系数随讲武堂</t>
+  </si>
+  <si>
     <t>特殊奖励概率，基数10000</t>
   </si>
   <si>
@@ -94,6 +97,9 @@
     <t>Reward</t>
   </si>
   <si>
+    <t>RewardRatio</t>
+  </si>
+  <si>
     <t>SpeRewardRate</t>
   </si>
   <si>
@@ -142,6 +148,9 @@
     <t>Item|1002|20_25</t>
   </si>
   <si>
+    <t>1|1.2|1.5|1.8|2|2.2|2.5|2.8</t>
+  </si>
+  <si>
     <t>-</t>
   </si>
   <si>
@@ -179,6 +188,9 @@
   </si>
   <si>
     <t>Item|1006|1_3</t>
+  </si>
+  <si>
+    <t>1|1|1|1|1|1|1|1</t>
   </si>
   <si>
     <t>Chicken</t>
@@ -320,8 +332,8 @@
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -340,6 +352,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -353,50 +372,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -407,8 +387,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -429,18 +417,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -454,7 +451,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -477,7 +474,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -498,187 +510,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -707,21 +719,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -733,24 +730,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -781,11 +760,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -804,16 +796,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -822,136 +834,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1292,38 +1304,39 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S40"/>
+  <dimension ref="A1:T40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I16" sqref="I16"/>
+      <selection pane="bottomLeft" activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.775" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="7.21666666666667" style="2" customWidth="1"/>
-    <col min="2" max="2" width="6.33333333333333" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.75" style="2" customWidth="1"/>
     <col min="3" max="3" width="10.3333333333333" style="2" customWidth="1"/>
     <col min="4" max="4" width="23.775" customWidth="1"/>
     <col min="5" max="5" width="27.1083333333333" customWidth="1"/>
     <col min="6" max="6" width="10" style="2" customWidth="1"/>
     <col min="7" max="7" width="42.775" style="2" customWidth="1"/>
     <col min="8" max="8" width="15.1083333333333" style="2" customWidth="1"/>
-    <col min="9" max="9" width="20.25" style="2" customWidth="1"/>
-    <col min="10" max="10" width="12.8833333333333" style="2" customWidth="1"/>
-    <col min="11" max="11" width="10.3333333333333" style="2" customWidth="1"/>
-    <col min="12" max="12" width="13.775" style="2" customWidth="1"/>
-    <col min="13" max="13" width="11" style="2" customWidth="1"/>
-    <col min="14" max="14" width="11.8833333333333" style="2" customWidth="1"/>
-    <col min="15" max="15" width="11.4416666666667" style="2" customWidth="1"/>
-    <col min="16" max="16" width="8.775" style="2"/>
-    <col min="17" max="18" width="10.3333333333333" style="2" customWidth="1"/>
-    <col min="19" max="19" width="12.1083333333333" style="2" customWidth="1"/>
-    <col min="20" max="16384" width="8.775" style="2"/>
+    <col min="9" max="9" width="21.375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="20.25" style="2" customWidth="1"/>
+    <col min="11" max="11" width="12.8833333333333" style="2" customWidth="1"/>
+    <col min="12" max="12" width="10.3333333333333" style="2" customWidth="1"/>
+    <col min="13" max="13" width="13.775" style="2" customWidth="1"/>
+    <col min="14" max="14" width="11" style="2" customWidth="1"/>
+    <col min="15" max="15" width="11.8833333333333" style="2" customWidth="1"/>
+    <col min="16" max="16" width="11.4416666666667" style="2" customWidth="1"/>
+    <col min="17" max="17" width="8.775" style="2"/>
+    <col min="18" max="19" width="10.3333333333333" style="2" customWidth="1"/>
+    <col min="20" max="20" width="12.1083333333333" style="2" customWidth="1"/>
+    <col min="21" max="16384" width="8.775" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:15">
+    <row r="1" s="1" customFormat="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1369,158 +1382,170 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:15">
+        <v>16</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:19">
+        <v>17</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:20">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q4" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="P4" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="R4" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19">
+        <v>36</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="2">
         <v>101</v>
       </c>
@@ -1528,51 +1553,54 @@
         <v>1</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="K5" s="2">
+        <v>43</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L5" s="2">
         <v>10</v>
       </c>
-      <c r="L5" s="2">
+      <c r="M5" s="2">
         <v>5</v>
       </c>
-      <c r="M5" s="2">
+      <c r="N5" s="2">
         <v>90</v>
       </c>
-      <c r="N5" s="2">
+      <c r="O5" s="2">
         <v>1</v>
       </c>
-      <c r="O5" s="2">
+      <c r="P5" s="2">
         <v>3</v>
       </c>
-      <c r="Q5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="R5" s="2">
-        <f>12.5*24*3600/(K5+M5+10)</f>
+      <c r="R5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="S5" s="2">
+        <f>12.5*24*3600/(L5+N5+10)</f>
         <v>9818.18181818182</v>
       </c>
-      <c r="S5" s="2">
-        <f>12.5*3600/(K5+M5+10)*O5</f>
+      <c r="T5" s="2">
+        <f>12.5*3600/(L5+N5+10)*P5</f>
         <v>1227.27272727273</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:20">
       <c r="A6" s="2">
         <v>102</v>
       </c>
@@ -1580,51 +1608,54 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="L6" s="2">
+        <v>10</v>
+      </c>
+      <c r="M6" s="2">
+        <v>5</v>
+      </c>
+      <c r="N6" s="2">
+        <v>90</v>
+      </c>
+      <c r="O6" s="2">
+        <v>1</v>
+      </c>
+      <c r="P6" s="2">
+        <v>3</v>
+      </c>
+      <c r="R6" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="K6" s="2">
-        <v>10</v>
-      </c>
-      <c r="L6" s="2">
-        <v>5</v>
-      </c>
-      <c r="M6" s="2">
-        <v>90</v>
-      </c>
-      <c r="N6" s="2">
-        <v>1</v>
-      </c>
-      <c r="O6" s="2">
-        <v>3</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="R6" s="2">
-        <f>12.5*24*3600/(K6+M6+10)</f>
+      <c r="S6" s="2">
+        <f>12.5*24*3600/(L6+N6+10)</f>
         <v>9818.18181818182</v>
       </c>
-      <c r="S6" s="2">
-        <f>12.5*3600/(K6+M6+10)*O6</f>
+      <c r="T6" s="2">
+        <f>12.5*3600/(L6+N6+10)*P6</f>
         <v>1227.27272727273</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:19">
       <c r="A7" s="2">
         <v>201</v>
       </c>
@@ -1632,48 +1663,51 @@
         <v>2</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="K7" s="2">
+        <v>57</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L7" s="2">
         <v>60</v>
-      </c>
-      <c r="L7" s="2">
-        <v>180</v>
       </c>
       <c r="M7" s="2">
         <v>180</v>
       </c>
       <c r="N7" s="2">
+        <v>180</v>
+      </c>
+      <c r="O7" s="2">
         <v>3</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>1</v>
       </c>
-      <c r="Q7" s="2">
-        <f>4*N7</f>
+      <c r="R7" s="2">
+        <f>4*O7</f>
         <v>12</v>
       </c>
-      <c r="R7" s="2">
-        <f>4*24*60/L7</f>
+      <c r="S7" s="2">
+        <f>4*24*60/M7</f>
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:19">
       <c r="A8" s="2">
         <v>301</v>
       </c>
@@ -1681,48 +1715,51 @@
         <v>3</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F8" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="K8" s="2">
+      <c r="L8" s="2">
         <v>30</v>
       </c>
-      <c r="L8" s="2">
+      <c r="M8" s="2">
         <v>300</v>
       </c>
-      <c r="M8" s="2">
+      <c r="N8" s="2">
         <v>180</v>
       </c>
-      <c r="N8" s="2">
+      <c r="O8" s="2">
         <v>2</v>
       </c>
-      <c r="O8" s="2">
+      <c r="P8" s="2">
         <v>1</v>
       </c>
-      <c r="Q8" s="2">
-        <f>2.5*N8</f>
+      <c r="R8" s="2">
+        <f>2.5*O8</f>
         <v>5</v>
       </c>
-      <c r="R8" s="2">
-        <f>2.5*24*60/L8</f>
+      <c r="S8" s="2">
+        <f>2.5*24*60/M8</f>
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:20">
       <c r="A9" s="2">
         <v>302</v>
       </c>
@@ -1730,57 +1767,60 @@
         <v>3</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="I9" s="2">
+        <v>70</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J9" s="2">
         <v>1000</v>
       </c>
-      <c r="J9" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="K9" s="2">
+      <c r="K9" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L9" s="2">
         <v>15</v>
       </c>
-      <c r="L9" s="2">
+      <c r="M9" s="2">
         <v>5</v>
       </c>
-      <c r="M9" s="2">
+      <c r="N9" s="2">
         <v>90</v>
       </c>
-      <c r="N9" s="2">
+      <c r="O9" s="2">
         <v>1</v>
       </c>
-      <c r="O9" s="2">
+      <c r="P9" s="2">
         <v>3</v>
       </c>
-      <c r="Q9" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="R9" s="2">
-        <f>6.5*24*3600/(K9+M9+10)</f>
+      <c r="R9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="S9" s="2">
+        <f>6.5*24*3600/(L9+N9+10)</f>
         <v>4883.47826086957</v>
       </c>
-      <c r="S9" s="2">
-        <f>6.5*3600/(K9+M9+10)*O9</f>
+      <c r="T9" s="2">
+        <f>6.5*3600/(L9+N9+10)*P9</f>
         <v>610.434782608696</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:20">
       <c r="A10" s="2">
         <v>303</v>
       </c>
@@ -1788,57 +1828,60 @@
         <v>3</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="I10" s="2">
+        <v>77</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J10" s="2">
         <v>1000</v>
       </c>
-      <c r="J10" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="K10" s="2">
+      <c r="K10" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="L10" s="2">
         <v>15</v>
       </c>
-      <c r="L10" s="2">
+      <c r="M10" s="2">
         <v>5</v>
       </c>
-      <c r="M10" s="2">
+      <c r="N10" s="2">
         <v>90</v>
       </c>
-      <c r="N10" s="2">
+      <c r="O10" s="2">
         <v>1</v>
       </c>
-      <c r="O10" s="2">
+      <c r="P10" s="2">
         <v>3</v>
       </c>
-      <c r="Q10" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="R10" s="2">
-        <f>6.5*24*3600/(K10+M10+10)</f>
+      <c r="R10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="S10" s="2">
+        <f>6.5*24*3600/(L10+N10+10)</f>
         <v>4883.47826086957</v>
       </c>
-      <c r="S10" s="2">
-        <f>6.5*3600/(K10+M10+10)*O10</f>
+      <c r="T10" s="2">
+        <f>6.5*3600/(L10+N10+10)*P10</f>
         <v>610.434782608696</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:19">
       <c r="A11" s="2">
         <v>401</v>
       </c>
@@ -1846,48 +1889,51 @@
         <v>4</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="K11" s="2">
+        <v>84</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L11" s="2">
         <v>30</v>
       </c>
-      <c r="L11" s="2">
+      <c r="M11" s="2">
         <v>300</v>
       </c>
-      <c r="M11" s="2">
+      <c r="N11" s="2">
         <v>180</v>
       </c>
-      <c r="N11" s="2">
+      <c r="O11" s="2">
         <v>2</v>
       </c>
-      <c r="O11" s="2">
+      <c r="P11" s="2">
         <v>1</v>
       </c>
-      <c r="Q11" s="2">
-        <f>2.5*N11</f>
+      <c r="R11" s="2">
+        <f>2.5*O11</f>
         <v>5</v>
       </c>
-      <c r="R11" s="2">
-        <f>2.5*24*60/L11</f>
+      <c r="S11" s="2">
+        <f>2.5*24*60/M11</f>
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:19">
       <c r="A12" s="2">
         <v>402</v>
       </c>
@@ -1895,48 +1941,51 @@
         <v>4</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="K12" s="2">
+        <v>90</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L12" s="2">
         <v>60</v>
-      </c>
-      <c r="L12" s="2">
-        <v>180</v>
       </c>
       <c r="M12" s="2">
         <v>180</v>
       </c>
       <c r="N12" s="2">
+        <v>180</v>
+      </c>
+      <c r="O12" s="2">
         <v>3</v>
       </c>
-      <c r="O12" s="2">
+      <c r="P12" s="2">
         <v>1</v>
       </c>
-      <c r="Q12" s="2">
-        <f>4*N12</f>
+      <c r="R12" s="2">
+        <f>4*O12</f>
         <v>12</v>
       </c>
-      <c r="R12" s="2">
-        <f>4*24*60/L12</f>
+      <c r="S12" s="2">
+        <f>4*24*60/M12</f>
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:19">
       <c r="A13" s="2">
         <v>501</v>
       </c>
@@ -1944,48 +1993,51 @@
         <v>5</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="F13" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L13" s="2">
         <v>90</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="K13" s="2">
-        <v>90</v>
-      </c>
-      <c r="L13" s="2">
+      <c r="M13" s="2">
         <v>300</v>
       </c>
-      <c r="M13" s="2">
+      <c r="N13" s="2">
         <v>180</v>
       </c>
-      <c r="N13" s="2">
+      <c r="O13" s="2">
         <v>2</v>
       </c>
-      <c r="O13" s="2">
+      <c r="P13" s="2">
         <v>1</v>
       </c>
-      <c r="Q13" s="2">
-        <f>2.5*N13</f>
+      <c r="R13" s="2">
+        <f>2.5*O13</f>
         <v>5</v>
       </c>
-      <c r="R13" s="2">
-        <f>2.5*24*60/L13</f>
+      <c r="S13" s="2">
+        <f>2.5*24*60/M13</f>
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:19">
       <c r="A14" s="2">
         <v>601</v>
       </c>
@@ -1993,44 +2045,47 @@
         <v>6</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="K14" s="2">
+        <v>102</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L14" s="2">
         <v>90</v>
       </c>
-      <c r="L14" s="2">
+      <c r="M14" s="2">
         <v>300</v>
       </c>
-      <c r="M14" s="2">
+      <c r="N14" s="2">
         <v>180</v>
       </c>
-      <c r="N14" s="2">
+      <c r="O14" s="2">
         <v>2</v>
       </c>
-      <c r="O14" s="2">
+      <c r="P14" s="2">
         <v>1</v>
       </c>
-      <c r="Q14" s="2">
-        <f>2.5*N14</f>
+      <c r="R14" s="2">
+        <f>2.5*O14</f>
         <v>5</v>
       </c>
-      <c r="R14" s="2">
-        <f>2.5*24*60/L14</f>
+      <c r="S14" s="2">
+        <f>2.5*24*60/M14</f>
         <v>12</v>
       </c>
     </row>

--- a/Tables/Sources/gameplay/MainTask/Work.xlsx
+++ b/Tables/Sources/gameplay/MainTask/Work.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="sheet" sheetId="2" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="104">
   <si>
     <t>工作ID</t>
   </si>
@@ -148,7 +148,7 @@
     <t>Item|1002|20_25</t>
   </si>
   <si>
-    <t>1|1.2|1.5|1.8|2|2.2|2.5|2.8</t>
+    <t>1|1.2|1.5|1.8|2|2.2|2.5|2.5</t>
   </si>
   <si>
     <t>-</t>
@@ -227,6 +227,9 @@
   </si>
   <si>
     <t>Item|1004|15_20</t>
+  </si>
+  <si>
+    <t>1|1|1|1.2|1.5|1.8|2|2.2</t>
   </si>
   <si>
     <t>Item|1007|1_2</t>
@@ -330,10 +333,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -352,13 +355,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -372,14 +368,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
@@ -387,71 +375,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -466,7 +391,39 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -487,9 +444,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -510,181 +513,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -720,6 +723,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -734,26 +752,28 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -782,21 +802,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -808,11 +813,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -822,148 +825,148 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1309,7 +1312,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G28" sqref="G28"/>
+      <selection pane="bottomLeft" activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.775" defaultRowHeight="14.25"/>
@@ -1785,13 +1788,13 @@
         <v>70</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="J9" s="2">
         <v>1000</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L9" s="2">
         <v>15</v>
@@ -1828,31 +1831,31 @@
         <v>3</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="J10" s="2">
         <v>1000</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L10" s="2">
         <v>15</v>
@@ -1889,22 +1892,22 @@
         <v>4</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>58</v>
@@ -1941,22 +1944,22 @@
         <v>4</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>58</v>
@@ -1993,22 +1996,22 @@
         <v>5</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>58</v>
@@ -2045,22 +2048,22 @@
         <v>6</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>58</v>
